--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.57849835277032</v>
+        <v>10.5784983527704</v>
       </c>
       <c r="D2">
-        <v>11.47289433039116</v>
+        <v>11.47289433039124</v>
       </c>
       <c r="E2">
         <v>13.66535894404354</v>
       </c>
       <c r="F2">
-        <v>87.4958245673847</v>
+        <v>87.49582456738491</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.0869056059331</v>
+        <v>15.08690560593311</v>
       </c>
       <c r="J2">
         <v>112.637784363723</v>
       </c>
       <c r="K2">
-        <v>7.49075812609437</v>
+        <v>7.490758126094328</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>9.228760134465688</v>
       </c>
       <c r="D3">
-        <v>9.172711881911354</v>
+        <v>9.172711881911361</v>
       </c>
       <c r="E3">
-        <v>12.00047261480803</v>
+        <v>12.00047261480809</v>
       </c>
       <c r="F3">
-        <v>73.28322667253228</v>
+        <v>73.28322667253252</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.92146236647447</v>
+        <v>12.92146236647454</v>
       </c>
       <c r="J3">
-        <v>100.1668630879349</v>
+        <v>100.1668630879351</v>
       </c>
       <c r="K3">
-        <v>6.8156042498747</v>
+        <v>6.815604249874756</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.535466155056794</v>
+        <v>8.535466155056856</v>
       </c>
       <c r="D4">
-        <v>8.087023121447901</v>
+        <v>8.087023121448338</v>
       </c>
       <c r="E4">
-        <v>11.2446844477607</v>
+        <v>11.24468444776075</v>
       </c>
       <c r="F4">
-        <v>66.49067972445705</v>
+        <v>66.49067972445893</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.84289341818117</v>
+        <v>11.84289341818143</v>
       </c>
       <c r="J4">
-        <v>93.48825036537843</v>
+        <v>93.48825036537932</v>
       </c>
       <c r="K4">
-        <v>6.512139008693679</v>
+        <v>6.512139008693725</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.267424260868919</v>
+        <v>8.267424260868781</v>
       </c>
       <c r="D5">
-        <v>7.684322231781132</v>
+        <v>7.68432223178131</v>
       </c>
       <c r="E5">
         <v>10.95524221532857</v>
       </c>
       <c r="F5">
-        <v>63.96013746737328</v>
+        <v>63.96013746737351</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.43134484471506</v>
+        <v>11.43134484471507</v>
       </c>
       <c r="J5">
-        <v>90.86104142954734</v>
+        <v>90.86104142954758</v>
       </c>
       <c r="K5">
-        <v>6.39793808557978</v>
+        <v>6.397938085579819</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.22351195950589</v>
+        <v>8.223511959505773</v>
       </c>
       <c r="D6">
-        <v>7.619253034617153</v>
+        <v>7.619253034617189</v>
       </c>
       <c r="E6">
-        <v>10.90799484628707</v>
+        <v>10.90799484628706</v>
       </c>
       <c r="F6">
-        <v>63.55077530853684</v>
+        <v>63.55077530853696</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.36419803486562</v>
+        <v>11.36419803486559</v>
       </c>
       <c r="J6">
-        <v>90.42832180110484</v>
+        <v>90.42832180110486</v>
       </c>
       <c r="K6">
-        <v>6.379413767551083</v>
+        <v>6.379413767551058</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>8.531806251317976</v>
       </c>
       <c r="D7">
-        <v>8.081460703670389</v>
+        <v>8.081460703670317</v>
       </c>
       <c r="E7">
-        <v>11.24072082267437</v>
+        <v>11.24072082267434</v>
       </c>
       <c r="F7">
-        <v>66.45576241129376</v>
+        <v>66.45576241129335</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>11.83725427690594</v>
       </c>
       <c r="J7">
-        <v>93.45254302164719</v>
+        <v>93.45254302164703</v>
       </c>
       <c r="K7">
-        <v>6.510567048850599</v>
+        <v>6.510567048850575</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D8">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E8">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F8">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J8">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K8">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D9">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E9">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F9">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J9">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K9">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D10">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E10">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F10">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J10">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K10">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D11">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E11">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F11">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J11">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K11">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D12">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E12">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F12">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J12">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K12">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D13">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E13">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F13">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J13">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K13">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D14">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E14">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F14">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J14">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K14">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D15">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E15">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F15">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J15">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K15">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D16">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E16">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F16">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J16">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K16">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D17">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E17">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F17">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J17">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K17">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D18">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E18">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F18">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J18">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K18">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D19">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E19">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F19">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J19">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K19">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D20">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E20">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F20">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J20">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K20">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D21">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E21">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F21">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J21">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K21">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D22">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E22">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F22">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J22">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K22">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D23">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E23">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F23">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J23">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K23">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D24">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E24">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F24">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J24">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K24">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.06396200826713</v>
+        <v>10.06396200826721</v>
       </c>
       <c r="D25">
-        <v>10.56634644707909</v>
+        <v>10.56634644707911</v>
       </c>
       <c r="E25">
-        <v>13.02756761817233</v>
+        <v>13.02756761817226</v>
       </c>
       <c r="F25">
-        <v>81.92571250599246</v>
+        <v>81.92571250599259</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.2503489976212</v>
+        <v>14.25034899762111</v>
       </c>
       <c r="J25">
-        <v>107.9722934695985</v>
+        <v>107.9722934695984</v>
       </c>
       <c r="K25">
-        <v>7.193827835033691</v>
+        <v>7.193827835033692</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.5784983527704</v>
+        <v>10.57849835277032</v>
       </c>
       <c r="D2">
-        <v>11.47289433039124</v>
+        <v>11.47289433039116</v>
       </c>
       <c r="E2">
         <v>13.66535894404354</v>
       </c>
       <c r="F2">
-        <v>87.49582456738491</v>
+        <v>87.4958245673847</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.08690560593311</v>
+        <v>15.0869056059331</v>
       </c>
       <c r="J2">
         <v>112.637784363723</v>
       </c>
       <c r="K2">
-        <v>7.490758126094328</v>
+        <v>7.49075812609437</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>9.228760134465688</v>
       </c>
       <c r="D3">
-        <v>9.172711881911361</v>
+        <v>9.172711881911354</v>
       </c>
       <c r="E3">
-        <v>12.00047261480809</v>
+        <v>12.00047261480803</v>
       </c>
       <c r="F3">
-        <v>73.28322667253252</v>
+        <v>73.28322667253228</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.92146236647454</v>
+        <v>12.92146236647447</v>
       </c>
       <c r="J3">
-        <v>100.1668630879351</v>
+        <v>100.1668630879349</v>
       </c>
       <c r="K3">
-        <v>6.815604249874756</v>
+        <v>6.8156042498747</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.535466155056856</v>
+        <v>8.535466155056794</v>
       </c>
       <c r="D4">
-        <v>8.087023121448338</v>
+        <v>8.087023121447901</v>
       </c>
       <c r="E4">
-        <v>11.24468444776075</v>
+        <v>11.2446844477607</v>
       </c>
       <c r="F4">
-        <v>66.49067972445893</v>
+        <v>66.49067972445705</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.84289341818143</v>
+        <v>11.84289341818117</v>
       </c>
       <c r="J4">
-        <v>93.48825036537932</v>
+        <v>93.48825036537843</v>
       </c>
       <c r="K4">
-        <v>6.512139008693725</v>
+        <v>6.512139008693679</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.267424260868781</v>
+        <v>8.267424260868919</v>
       </c>
       <c r="D5">
-        <v>7.68432223178131</v>
+        <v>7.684322231781132</v>
       </c>
       <c r="E5">
         <v>10.95524221532857</v>
       </c>
       <c r="F5">
-        <v>63.96013746737351</v>
+        <v>63.96013746737328</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.43134484471507</v>
+        <v>11.43134484471506</v>
       </c>
       <c r="J5">
-        <v>90.86104142954758</v>
+        <v>90.86104142954734</v>
       </c>
       <c r="K5">
-        <v>6.397938085579819</v>
+        <v>6.39793808557978</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.223511959505773</v>
+        <v>8.22351195950589</v>
       </c>
       <c r="D6">
-        <v>7.619253034617189</v>
+        <v>7.619253034617153</v>
       </c>
       <c r="E6">
-        <v>10.90799484628706</v>
+        <v>10.90799484628707</v>
       </c>
       <c r="F6">
-        <v>63.55077530853696</v>
+        <v>63.55077530853684</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.36419803486559</v>
+        <v>11.36419803486562</v>
       </c>
       <c r="J6">
-        <v>90.42832180110486</v>
+        <v>90.42832180110484</v>
       </c>
       <c r="K6">
-        <v>6.379413767551058</v>
+        <v>6.379413767551083</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>8.531806251317976</v>
       </c>
       <c r="D7">
-        <v>8.081460703670317</v>
+        <v>8.081460703670389</v>
       </c>
       <c r="E7">
-        <v>11.24072082267434</v>
+        <v>11.24072082267437</v>
       </c>
       <c r="F7">
-        <v>66.45576241129335</v>
+        <v>66.45576241129376</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>11.83725427690594</v>
       </c>
       <c r="J7">
-        <v>93.45254302164703</v>
+        <v>93.45254302164719</v>
       </c>
       <c r="K7">
-        <v>6.510567048850575</v>
+        <v>6.510567048850599</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D8">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E8">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F8">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J8">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K8">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D9">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E9">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F9">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J9">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K9">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D10">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E10">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F10">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J10">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K10">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D11">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E11">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F11">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J11">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K11">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D12">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E12">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F12">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J12">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K12">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D13">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E13">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F13">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J13">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K13">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D14">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E14">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F14">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J14">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K14">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D15">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E15">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F15">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J15">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K15">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D16">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E16">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F16">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J16">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K16">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D17">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E17">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F17">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J17">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K17">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D18">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E18">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F18">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J18">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K18">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D19">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E19">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F19">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J19">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K19">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D20">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E20">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F20">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J20">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K20">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D21">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E21">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F21">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J21">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K21">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D22">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E22">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F22">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J22">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K22">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D23">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E23">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F23">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J23">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K23">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D24">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E24">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F24">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J24">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K24">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.06396200826721</v>
+        <v>10.06396200826713</v>
       </c>
       <c r="D25">
-        <v>10.56634644707911</v>
+        <v>10.56634644707909</v>
       </c>
       <c r="E25">
-        <v>13.02756761817226</v>
+        <v>13.02756761817233</v>
       </c>
       <c r="F25">
-        <v>81.92571250599259</v>
+        <v>81.92571250599246</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.25034899762111</v>
+        <v>14.2503489976212</v>
       </c>
       <c r="J25">
-        <v>107.9722934695984</v>
+        <v>107.9722934695985</v>
       </c>
       <c r="K25">
-        <v>7.193827835033692</v>
+        <v>7.193827835033691</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.57849835277032</v>
+        <v>10.46699543193963</v>
       </c>
       <c r="D2">
-        <v>11.47289433039116</v>
+        <v>11.11402745598236</v>
       </c>
       <c r="E2">
-        <v>13.66535894404354</v>
+        <v>13.53653245090571</v>
       </c>
       <c r="F2">
-        <v>87.4958245673847</v>
+        <v>85.89618858694574</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.690952392592114</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.0869056059331</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>112.637784363723</v>
+        <v>14.87114476343121</v>
       </c>
       <c r="K2">
-        <v>7.49075812609437</v>
+        <v>111.6571491208327</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.434255165035239</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.228760134465688</v>
+        <v>9.157533231974543</v>
       </c>
       <c r="D3">
-        <v>9.172711881911354</v>
+        <v>8.903803467236582</v>
       </c>
       <c r="E3">
-        <v>12.00047261480803</v>
+        <v>11.92153878679119</v>
       </c>
       <c r="F3">
-        <v>73.28322667253228</v>
+        <v>72.27964811215868</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.796034171399155</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.92146236647447</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>100.1668630879349</v>
+        <v>12.77863482795363</v>
       </c>
       <c r="K3">
-        <v>6.8156042498747</v>
+        <v>99.51156986097112</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.781025003570617</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.535466155056794</v>
+        <v>8.476308083046698</v>
       </c>
       <c r="D4">
-        <v>8.087023121447901</v>
+        <v>7.848192854743953</v>
       </c>
       <c r="E4">
-        <v>11.2446844477607</v>
+        <v>11.17822982437744</v>
       </c>
       <c r="F4">
-        <v>66.49067972445705</v>
+        <v>65.69912194558586</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.846688774693617</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.84289341818117</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>93.48825036537843</v>
+        <v>11.72206665027689</v>
       </c>
       <c r="K4">
-        <v>6.512139008693679</v>
+        <v>92.93612658655691</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.482521578098881</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.267424260868919</v>
+        <v>8.212117889109836</v>
       </c>
       <c r="D5">
-        <v>7.684322231781132</v>
+        <v>7.455993546720113</v>
       </c>
       <c r="E5">
-        <v>10.95524221532857</v>
+        <v>10.89268440423894</v>
       </c>
       <c r="F5">
-        <v>63.96013746737328</v>
+        <v>63.24369500255721</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.865629406715474</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.43134484471506</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>90.86104142954734</v>
+        <v>11.31758263220519</v>
       </c>
       <c r="K5">
-        <v>6.39793808557978</v>
+        <v>90.34300209500883</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.369836645302905</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.22351195950589</v>
+        <v>8.168802373457156</v>
       </c>
       <c r="D6">
-        <v>7.619253034617153</v>
+        <v>7.392609811708691</v>
       </c>
       <c r="E6">
-        <v>10.90799484628707</v>
+        <v>10.84603609998171</v>
       </c>
       <c r="F6">
-        <v>63.55077530853684</v>
+        <v>62.84640841296384</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.86869803420641</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.36419803486562</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>90.42832180110484</v>
+        <v>11.2515331719634</v>
       </c>
       <c r="K6">
-        <v>6.379413767551083</v>
+        <v>89.91562949041044</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.351543594458274</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.531806251317976</v>
+        <v>8.472703355284523</v>
       </c>
       <c r="D7">
-        <v>8.081460703670389</v>
+        <v>7.842776785030586</v>
       </c>
       <c r="E7">
-        <v>11.24072082267437</v>
+        <v>11.17432236857992</v>
       </c>
       <c r="F7">
-        <v>66.45576241129376</v>
+        <v>65.66524908874503</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.846949819984228</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.83725427690594</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>93.45254302164719</v>
+        <v>11.71652851509016</v>
       </c>
       <c r="K7">
-        <v>6.510567048850599</v>
+        <v>92.9009027004924</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.480971603844378</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D8">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E8">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F8">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K8">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D9">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E9">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F9">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K9">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D10">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E10">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F10">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K10">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D11">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E11">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F11">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K11">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D12">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E12">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F12">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K12">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D13">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E13">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F13">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K13">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D14">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E14">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F14">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K14">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D15">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E15">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F15">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K15">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D16">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E16">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F16">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K16">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D17">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E17">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F17">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K17">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D18">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E18">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F18">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K18">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D19">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E19">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F19">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K19">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D20">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E20">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F20">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K20">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D21">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E21">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F21">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K21">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D22">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E22">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F22">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K22">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D23">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E23">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F23">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K23">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D24">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E24">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F24">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K24">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.06396200826713</v>
+        <v>9.971742896059473</v>
       </c>
       <c r="D25">
-        <v>10.56634644707909</v>
+        <v>10.24967439101591</v>
       </c>
       <c r="E25">
-        <v>13.02756761817233</v>
+        <v>12.92172473402944</v>
       </c>
       <c r="F25">
-        <v>81.92571250599246</v>
+        <v>80.59924997129735</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.73192875640485</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.2503489976212</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>107.9722934695985</v>
+        <v>14.06947017540956</v>
       </c>
       <c r="K25">
-        <v>7.193827835033691</v>
+        <v>107.1451872366682</v>
       </c>
       <c r="L25">
+        <v>7.150122197486806</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.46699543193963</v>
+        <v>3.466533852220689</v>
       </c>
       <c r="D2">
-        <v>11.11402745598236</v>
+        <v>23.38317623624218</v>
       </c>
       <c r="E2">
-        <v>13.53653245090571</v>
+        <v>10.23091255547785</v>
       </c>
       <c r="F2">
-        <v>85.89618858694574</v>
+        <v>128.5765847142482</v>
       </c>
       <c r="G2">
-        <v>1.690952392592114</v>
+        <v>1.600317712262939</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,19 +445,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.87114476343121</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>111.6571491208327</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.434255165035239</v>
+        <v>8.791637999770135</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>75.41987807127531</v>
+      </c>
+      <c r="N2">
+        <v>11.57685713067421</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.157533231974543</v>
+        <v>3.914654550729676</v>
       </c>
       <c r="D3">
-        <v>8.903803467236582</v>
+        <v>19.10353404175101</v>
       </c>
       <c r="E3">
-        <v>11.92153878679119</v>
+        <v>9.113416258608266</v>
       </c>
       <c r="F3">
-        <v>72.27964811215868</v>
+        <v>106.2589616064113</v>
       </c>
       <c r="G3">
-        <v>1.796034171399155</v>
+        <v>1.786213382012438</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,19 +492,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.77863482795363</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>99.51156986097112</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.781025003570617</v>
+        <v>7.72533651438094</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>63.75973529298344</v>
+      </c>
+      <c r="N3">
+        <v>12.19417318816077</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.476308083046698</v>
+        <v>4.120890518733369</v>
       </c>
       <c r="D4">
-        <v>7.848192854743953</v>
+        <v>17.61684575786446</v>
       </c>
       <c r="E4">
-        <v>11.17822982437744</v>
+        <v>8.651987270512858</v>
       </c>
       <c r="F4">
-        <v>65.69912194558586</v>
+        <v>97.48924546064048</v>
       </c>
       <c r="G4">
-        <v>1.846688774693617</v>
+        <v>1.855016034660939</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,19 +539,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.72206665027689</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>92.93612658655691</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.482521578098881</v>
+        <v>7.286493437996181</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>58.86066395641472</v>
+      </c>
+      <c r="N4">
+        <v>12.37518555917627</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.212117889109836</v>
+        <v>4.199311369102033</v>
       </c>
       <c r="D5">
-        <v>7.455993546720113</v>
+        <v>17.09117674439489</v>
       </c>
       <c r="E5">
-        <v>10.89268440423894</v>
+        <v>8.479812689507259</v>
       </c>
       <c r="F5">
-        <v>63.24369500255721</v>
+        <v>94.28848731542018</v>
       </c>
       <c r="G5">
-        <v>1.865629406715474</v>
+        <v>1.879636849544891</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,19 +586,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.31758263220519</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>90.34300209500883</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.369836645302905</v>
+        <v>7.122972623761793</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>57.0193312238038</v>
+      </c>
+      <c r="N5">
+        <v>12.43520719398261</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.168802373457156</v>
+        <v>4.212097118321537</v>
       </c>
       <c r="D6">
-        <v>7.392609811708691</v>
+        <v>17.00711403951732</v>
       </c>
       <c r="E6">
-        <v>10.84603609998171</v>
+        <v>8.451857507718616</v>
       </c>
       <c r="F6">
-        <v>62.84640841296384</v>
+        <v>93.77248738143309</v>
       </c>
       <c r="G6">
-        <v>1.86869803420641</v>
+        <v>1.88358373302663</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,19 +633,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.2515331719634</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>89.91562949041044</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.351543594458274</v>
+        <v>7.096432060518964</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>56.71959514045663</v>
+      </c>
+      <c r="N6">
+        <v>12.44462768343313</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.472703355284523</v>
+        <v>4.121965729832241</v>
       </c>
       <c r="D7">
-        <v>7.842776785030586</v>
+        <v>17.60951801126384</v>
       </c>
       <c r="E7">
-        <v>11.17432236857992</v>
+        <v>8.649617327229974</v>
       </c>
       <c r="F7">
-        <v>65.66524908874503</v>
+        <v>97.44492259424324</v>
       </c>
       <c r="G7">
-        <v>1.846949819984228</v>
+        <v>1.855358651900904</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,19 +680,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.71652851509016</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>92.9009027004924</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.480971603844378</v>
+        <v>7.284241871570611</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>58.83537148132532</v>
+      </c>
+      <c r="N7">
+        <v>12.37603637890961</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D8">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E8">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F8">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G8">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,19 +727,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N8">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D9">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E9">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F9">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G9">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,19 +774,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N9">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D10">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E10">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F10">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G10">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,19 +821,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N10">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D11">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E11">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F11">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G11">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,19 +868,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N11">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D12">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E12">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F12">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G12">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,19 +915,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N12">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D13">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E13">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F13">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G13">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,19 +962,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N13">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D14">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E14">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F14">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G14">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,19 +1009,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N14">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D15">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E15">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F15">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G15">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,19 +1056,25 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N15">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D16">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E16">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F16">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G16">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,19 +1103,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N16">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D17">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E17">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F17">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G17">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,19 +1150,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N17">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D18">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E18">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F18">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G18">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,19 +1197,25 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N18">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D19">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E19">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F19">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G19">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,19 +1244,25 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N19">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D20">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E20">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F20">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G20">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N20">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D21">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E21">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F21">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G21">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,19 +1338,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N21">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D22">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E22">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F22">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G22">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,19 +1385,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N22">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D23">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E23">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F23">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G23">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,19 +1432,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N23">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D24">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E24">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F24">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G24">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,19 +1479,25 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N24">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.971742896059473</v>
+        <v>3.653836943089043</v>
       </c>
       <c r="D25">
-        <v>10.24967439101591</v>
+        <v>21.42670922726107</v>
       </c>
       <c r="E25">
-        <v>12.92172473402944</v>
+        <v>9.73215841391295</v>
       </c>
       <c r="F25">
-        <v>80.59924997129735</v>
+        <v>118.4427268126085</v>
       </c>
       <c r="G25">
-        <v>1.73192875640485</v>
+        <v>1.686846232926404</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.06947017540956</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>107.1451872366682</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.150122197486806</v>
+        <v>8.315316530153488</v>
       </c>
       <c r="M25">
+        <v>70.25548007852464</v>
+      </c>
+      <c r="N25">
+        <v>11.89032228523833</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.466533852220689</v>
+        <v>9.686010639752677</v>
       </c>
       <c r="D2">
-        <v>23.38317623624218</v>
+        <v>1.744793893900738</v>
       </c>
       <c r="E2">
-        <v>10.23091255547785</v>
+        <v>8.03944456133557</v>
       </c>
       <c r="F2">
-        <v>128.5765847142482</v>
+        <v>51.05233072187335</v>
       </c>
       <c r="G2">
-        <v>1.600317712262939</v>
+        <v>2.147779039053161</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.429639746242778</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>29.11294230626085</v>
       </c>
       <c r="L2">
-        <v>8.791637999770135</v>
+        <v>4.975422381757988</v>
       </c>
       <c r="M2">
-        <v>75.41987807127531</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.57685713067421</v>
+        <v>15.15381141579061</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.914654550729676</v>
+        <v>9.333855821430125</v>
       </c>
       <c r="D3">
-        <v>19.10353404175101</v>
+        <v>1.816243848122911</v>
       </c>
       <c r="E3">
-        <v>9.113416258608266</v>
+        <v>7.924552600288112</v>
       </c>
       <c r="F3">
-        <v>106.2589616064113</v>
+        <v>49.61096023935217</v>
       </c>
       <c r="G3">
-        <v>1.786213382012438</v>
+        <v>2.163322714322478</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.422653031208442</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>27.57764727140592</v>
       </c>
       <c r="L3">
-        <v>7.72533651438094</v>
+        <v>5.005084245118056</v>
       </c>
       <c r="M3">
-        <v>63.75973529298344</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.19417318816077</v>
+        <v>15.45232599461425</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.120890518733369</v>
+        <v>9.120740582716934</v>
       </c>
       <c r="D4">
-        <v>17.61684575786446</v>
+        <v>1.859637686099592</v>
       </c>
       <c r="E4">
-        <v>8.651987270512858</v>
+        <v>7.858839432746133</v>
       </c>
       <c r="F4">
-        <v>97.48924546064048</v>
+        <v>48.76801969828893</v>
       </c>
       <c r="G4">
-        <v>1.855016034660939</v>
+        <v>2.173013841041682</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.423147829148243</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>26.62386165796705</v>
       </c>
       <c r="L4">
-        <v>7.286493437996181</v>
+        <v>5.024640922737817</v>
       </c>
       <c r="M4">
-        <v>58.86066395641472</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.37518555917627</v>
+        <v>15.63871450640717</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.199311369102033</v>
+        <v>9.034714426936786</v>
       </c>
       <c r="D5">
-        <v>17.09117674439489</v>
+        <v>1.877242045660721</v>
       </c>
       <c r="E5">
-        <v>8.479812689507259</v>
+        <v>7.833241382098997</v>
       </c>
       <c r="F5">
-        <v>94.28848731542018</v>
+        <v>48.43478043901884</v>
       </c>
       <c r="G5">
-        <v>1.879636849544891</v>
+        <v>2.177005946141505</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.424492925893353</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>26.23264297433477</v>
       </c>
       <c r="L5">
-        <v>7.122972623761793</v>
+        <v>5.032950261509461</v>
       </c>
       <c r="M5">
-        <v>57.0193312238038</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.43520719398261</v>
+        <v>15.71549250010457</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.212097118321537</v>
+        <v>9.020480758780907</v>
       </c>
       <c r="D6">
-        <v>17.00711403951732</v>
+        <v>1.880161575601456</v>
       </c>
       <c r="E6">
-        <v>8.451857507718616</v>
+        <v>7.829061192826512</v>
       </c>
       <c r="F6">
-        <v>93.77248738143309</v>
+        <v>48.38005780347972</v>
       </c>
       <c r="G6">
-        <v>1.88358373302663</v>
+        <v>2.177671582771467</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.424783682076688</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26.1675372086092</v>
       </c>
       <c r="L6">
-        <v>7.096432060518964</v>
+        <v>5.034350596464656</v>
       </c>
       <c r="M6">
-        <v>56.71959514045663</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.44462768343313</v>
+        <v>15.72829241181336</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.121965729832241</v>
+        <v>9.11957702288286</v>
       </c>
       <c r="D7">
-        <v>17.60951801126384</v>
+        <v>1.859875373696523</v>
       </c>
       <c r="E7">
-        <v>8.649617327229974</v>
+        <v>7.85848947178442</v>
       </c>
       <c r="F7">
-        <v>97.44492259424324</v>
+        <v>48.76348434007461</v>
       </c>
       <c r="G7">
-        <v>1.855358651900904</v>
+        <v>2.173067498984008</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.423161415277894</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>26.61859543387628</v>
       </c>
       <c r="L7">
-        <v>7.284241871570611</v>
+        <v>5.024751607098929</v>
       </c>
       <c r="M7">
-        <v>58.83537148132532</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37603637890961</v>
+        <v>15.63974657087556</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.653836943089043</v>
+        <v>9.563960370005931</v>
       </c>
       <c r="D8">
-        <v>21.42670922726107</v>
+        <v>1.769554912334929</v>
       </c>
       <c r="E8">
-        <v>9.73215841391295</v>
+        <v>7.998805691963401</v>
       </c>
       <c r="F8">
-        <v>118.4427268126085</v>
+        <v>50.5464146112806</v>
       </c>
       <c r="G8">
-        <v>1.686846232926404</v>
+        <v>2.153111670379993</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.426200239769733</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>28.58599336949849</v>
       </c>
       <c r="L8">
-        <v>8.315316530153488</v>
+        <v>4.985371966859348</v>
       </c>
       <c r="M8">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>11.89032228523833</v>
+        <v>15.25612253976942</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.653836943089043</v>
+        <v>10.45937494675965</v>
       </c>
       <c r="D9">
-        <v>21.42670922726107</v>
+        <v>1.586522113649185</v>
       </c>
       <c r="E9">
-        <v>9.73215841391295</v>
+        <v>8.314040807989134</v>
       </c>
       <c r="F9">
-        <v>118.4427268126085</v>
+        <v>54.39360997848672</v>
       </c>
       <c r="G9">
-        <v>1.686846232926404</v>
+        <v>2.114843832459754</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.473093028895147</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.35110055501462</v>
       </c>
       <c r="L9">
-        <v>8.315316530153488</v>
+        <v>4.918720924520657</v>
       </c>
       <c r="M9">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.89032228523833</v>
+        <v>14.52643968477799</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.653836943089043</v>
+        <v>11.1328405853924</v>
       </c>
       <c r="D10">
-        <v>21.42670922726107</v>
+        <v>1.67690743514055</v>
       </c>
       <c r="E10">
-        <v>9.73215841391295</v>
+        <v>8.57298394836481</v>
       </c>
       <c r="F10">
-        <v>118.4427268126085</v>
+        <v>57.46512880066187</v>
       </c>
       <c r="G10">
-        <v>1.686846232926404</v>
+        <v>2.086761303118142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.537157752184781</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>35.06390542708173</v>
       </c>
       <c r="L10">
-        <v>8.315316530153488</v>
+        <v>4.876046733202877</v>
       </c>
       <c r="M10">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.89032228523833</v>
+        <v>14.00144309942361</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.653836943089043</v>
+        <v>11.44348892667898</v>
       </c>
       <c r="D11">
-        <v>21.42670922726107</v>
+        <v>1.725824804077263</v>
       </c>
       <c r="E11">
-        <v>9.73215841391295</v>
+        <v>8.697560239601593</v>
       </c>
       <c r="F11">
-        <v>118.4427268126085</v>
+        <v>58.92546202139152</v>
       </c>
       <c r="G11">
-        <v>1.686846232926404</v>
+        <v>2.07385642949519</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.573957806228004</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>36.29013300528444</v>
       </c>
       <c r="L11">
-        <v>8.315316530153488</v>
+        <v>4.857958302832508</v>
       </c>
       <c r="M11">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.89032228523833</v>
+        <v>13.764506611985</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.653836943089043</v>
+        <v>11.56186883234545</v>
       </c>
       <c r="D12">
-        <v>21.42670922726107</v>
+        <v>1.744709399904691</v>
       </c>
       <c r="E12">
-        <v>9.73215841391295</v>
+        <v>8.745799620728427</v>
       </c>
       <c r="F12">
-        <v>118.4427268126085</v>
+        <v>59.4886381928634</v>
       </c>
       <c r="G12">
-        <v>1.686846232926404</v>
+        <v>2.068936941187224</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.589115983495449</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>36.75387742788003</v>
       </c>
       <c r="L12">
-        <v>8.315316530153488</v>
+        <v>4.851294813643601</v>
       </c>
       <c r="M12">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.89032228523833</v>
+        <v>13.67502462867823</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.653836943089043</v>
+        <v>11.53633789762772</v>
       </c>
       <c r="D13">
-        <v>21.42670922726107</v>
+        <v>1.740624769342964</v>
       </c>
       <c r="E13">
-        <v>9.73215841391295</v>
+        <v>8.73536137120983</v>
       </c>
       <c r="F13">
-        <v>118.4427268126085</v>
+        <v>59.36687441278904</v>
       </c>
       <c r="G13">
-        <v>1.686846232926404</v>
+        <v>2.069998147594452</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.585794854831589</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>36.65401797064668</v>
       </c>
       <c r="L13">
-        <v>8.315316530153488</v>
+        <v>4.852721710595292</v>
       </c>
       <c r="M13">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.89032228523833</v>
+        <v>13.69428582846727</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.653836943089043</v>
+        <v>11.4532122775881</v>
       </c>
       <c r="D14">
-        <v>21.42670922726107</v>
+        <v>1.727370705470306</v>
       </c>
       <c r="E14">
-        <v>9.73215841391295</v>
+        <v>8.701506984729551</v>
       </c>
       <c r="F14">
-        <v>118.4427268126085</v>
+        <v>58.97158340330449</v>
       </c>
       <c r="G14">
-        <v>1.686846232926404</v>
+        <v>2.073452445412727</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.57517960157556</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>36.32829385897539</v>
       </c>
       <c r="L14">
-        <v>8.315316530153488</v>
+        <v>4.857406389081712</v>
       </c>
       <c r="M14">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.89032228523833</v>
+        <v>13.7571401845419</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.653836943089043</v>
+        <v>11.40239703695121</v>
       </c>
       <c r="D15">
-        <v>21.42670922726107</v>
+        <v>1.719301830689405</v>
       </c>
       <c r="E15">
-        <v>9.73215841391295</v>
+        <v>8.680911931932306</v>
       </c>
       <c r="F15">
-        <v>118.4427268126085</v>
+        <v>58.73082003079615</v>
       </c>
       <c r="G15">
-        <v>1.686846232926404</v>
+        <v>2.07556358313593</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.568840656072884</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>36.12871915129559</v>
       </c>
       <c r="L15">
-        <v>8.315316530153488</v>
+        <v>4.860299999118458</v>
       </c>
       <c r="M15">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.89032228523833</v>
+        <v>13.79567092896458</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.653836943089043</v>
+        <v>11.11263498365715</v>
       </c>
       <c r="D16">
-        <v>21.42670922726107</v>
+        <v>1.673756329812215</v>
       </c>
       <c r="E16">
-        <v>9.73215841391295</v>
+        <v>8.564986265188166</v>
       </c>
       <c r="F16">
-        <v>118.4427268126085</v>
+        <v>57.37105004964884</v>
       </c>
       <c r="G16">
-        <v>1.686846232926404</v>
+        <v>2.087600914182103</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.534916818611863</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>34.98365131953386</v>
       </c>
       <c r="L16">
-        <v>8.315316530153488</v>
+        <v>4.877255160936631</v>
       </c>
       <c r="M16">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.89032228523833</v>
+        <v>14.01696256440612</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.653836943089043</v>
+        <v>10.93604812000582</v>
       </c>
       <c r="D17">
-        <v>21.42670922726107</v>
+        <v>1.64636789569158</v>
       </c>
       <c r="E17">
-        <v>9.73215841391295</v>
+        <v>8.495664132368296</v>
       </c>
       <c r="F17">
-        <v>118.4427268126085</v>
+        <v>56.55373106867946</v>
       </c>
       <c r="G17">
-        <v>1.686846232926404</v>
+        <v>2.094942976915011</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.516147351356158</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>34.27949484134159</v>
       </c>
       <c r="L17">
-        <v>8.315316530153488</v>
+        <v>4.887993038568853</v>
       </c>
       <c r="M17">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.89032228523833</v>
+        <v>14.15317612409252</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.653836943089043</v>
+        <v>10.8348729282473</v>
       </c>
       <c r="D18">
-        <v>21.42670922726107</v>
+        <v>1.630793240819016</v>
       </c>
       <c r="E18">
-        <v>9.73215841391295</v>
+        <v>8.456423749845566</v>
       </c>
       <c r="F18">
-        <v>118.4427268126085</v>
+        <v>56.08948682915884</v>
       </c>
       <c r="G18">
-        <v>1.686846232926404</v>
+        <v>2.099154678495657</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.506064015305116</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>33.87370212558093</v>
       </c>
       <c r="L18">
-        <v>8.315316530153488</v>
+        <v>4.894294125671125</v>
       </c>
       <c r="M18">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.89032228523833</v>
+        <v>14.23170153109933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.653836943089043</v>
+        <v>10.80068115438093</v>
       </c>
       <c r="D19">
-        <v>21.42670922726107</v>
+        <v>1.625548429174347</v>
       </c>
       <c r="E19">
-        <v>9.73215841391295</v>
+        <v>8.443243751204346</v>
       </c>
       <c r="F19">
-        <v>118.4427268126085</v>
+        <v>55.9332784063791</v>
       </c>
       <c r="G19">
-        <v>1.686846232926404</v>
+        <v>2.100579139245236</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.502768922270578</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>33.7361607379799</v>
       </c>
       <c r="L19">
-        <v>8.315316530153488</v>
+        <v>4.896449139767423</v>
       </c>
       <c r="M19">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.89032228523833</v>
+        <v>14.25832072527051</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.653836943089043</v>
+        <v>10.95480466630053</v>
       </c>
       <c r="D20">
-        <v>21.42670922726107</v>
+        <v>1.649264451194205</v>
       </c>
       <c r="E20">
-        <v>9.73215841391295</v>
+        <v>8.502977610996652</v>
       </c>
       <c r="F20">
-        <v>118.4427268126085</v>
+        <v>56.64012290294569</v>
       </c>
       <c r="G20">
-        <v>1.686846232926404</v>
+        <v>2.094162660085827</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.518070846359196</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>34.35453109261745</v>
       </c>
       <c r="L20">
-        <v>8.315316530153488</v>
+        <v>4.886837069811674</v>
       </c>
       <c r="M20">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.89032228523833</v>
+        <v>14.13865769178312</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.653836943089043</v>
+        <v>11.47760680870219</v>
       </c>
       <c r="D21">
-        <v>21.42670922726107</v>
+        <v>1.731253236864517</v>
       </c>
       <c r="E21">
-        <v>9.73215841391295</v>
+        <v>8.711421108769825</v>
       </c>
       <c r="F21">
-        <v>118.4427268126085</v>
+        <v>59.08740331955892</v>
       </c>
       <c r="G21">
-        <v>1.686846232926404</v>
+        <v>2.072438846892966</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.578263300367971</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>36.42397805327804</v>
       </c>
       <c r="L21">
-        <v>8.315316530153488</v>
+        <v>4.856025369954822</v>
       </c>
       <c r="M21">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.89032228523833</v>
+        <v>13.73867198918178</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.653836943089043</v>
+        <v>11.82372534479539</v>
       </c>
       <c r="D22">
-        <v>21.42670922726107</v>
+        <v>1.786990283043722</v>
       </c>
       <c r="E22">
-        <v>9.73215841391295</v>
+        <v>8.853917643919816</v>
       </c>
       <c r="F22">
-        <v>118.4427268126085</v>
+        <v>60.7469301470466</v>
       </c>
       <c r="G22">
-        <v>1.686846232926404</v>
+        <v>2.058041903872964</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.624802254228212</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>37.81634347714628</v>
       </c>
       <c r="L22">
-        <v>8.315316530153488</v>
+        <v>4.836970841178824</v>
       </c>
       <c r="M22">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.89032228523833</v>
+        <v>13.47865683340856</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.653836943089043</v>
+        <v>11.63853269375739</v>
       </c>
       <c r="D23">
-        <v>21.42670922726107</v>
+        <v>1.757014332099834</v>
       </c>
       <c r="E23">
-        <v>9.73215841391295</v>
+        <v>8.777255437969027</v>
       </c>
       <c r="F23">
-        <v>118.4427268126085</v>
+        <v>59.8552607893678</v>
       </c>
       <c r="G23">
-        <v>1.686846232926404</v>
+        <v>2.065749425602086</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.599258924514469</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>37.05323141549168</v>
       </c>
       <c r="L23">
-        <v>8.315316530153488</v>
+        <v>4.84704317682119</v>
       </c>
       <c r="M23">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.89032228523833</v>
+        <v>13.61731059012454</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.653836943089043</v>
+        <v>10.94632375983537</v>
       </c>
       <c r="D24">
-        <v>21.42670922726107</v>
+        <v>1.647954390509561</v>
       </c>
       <c r="E24">
-        <v>9.73215841391295</v>
+        <v>8.499669281775573</v>
       </c>
       <c r="F24">
-        <v>118.4427268126085</v>
+        <v>56.60104765648886</v>
       </c>
       <c r="G24">
-        <v>1.686846232926404</v>
+        <v>2.094515469430065</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.517199039554948</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34.32061024226303</v>
       </c>
       <c r="L24">
-        <v>8.315316530153488</v>
+        <v>4.887359285116369</v>
       </c>
       <c r="M24">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.89032228523833</v>
+        <v>14.14522080489363</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.653836943089043</v>
+        <v>10.2145767976546</v>
       </c>
       <c r="D25">
-        <v>21.42670922726107</v>
+        <v>1.636999351351786</v>
       </c>
       <c r="E25">
-        <v>9.73215841391295</v>
+        <v>8.224200982465634</v>
       </c>
       <c r="F25">
-        <v>118.4427268126085</v>
+        <v>53.31251876963555</v>
       </c>
       <c r="G25">
-        <v>1.686846232926404</v>
+        <v>2.125150121635477</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.455578362794197</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>31.34265805562621</v>
       </c>
       <c r="L25">
-        <v>8.315316530153488</v>
+        <v>4.935634158056777</v>
       </c>
       <c r="M25">
-        <v>70.25548007852464</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.89032228523833</v>
+        <v>14.72170117594553</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.686010639752677</v>
+        <v>13.26178636439901</v>
       </c>
       <c r="D2">
-        <v>1.744793893900738</v>
+        <v>3.556611813870331</v>
       </c>
       <c r="E2">
-        <v>8.03944456133557</v>
+        <v>13.40283408883736</v>
       </c>
       <c r="F2">
-        <v>51.05233072187335</v>
+        <v>67.67035775131886</v>
       </c>
       <c r="G2">
-        <v>2.147779039053161</v>
+        <v>3.858313013601256</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.429639746242778</v>
+        <v>12.69443507458476</v>
       </c>
       <c r="K2">
-        <v>29.11294230626085</v>
+        <v>33.40599697711745</v>
       </c>
       <c r="L2">
-        <v>4.975422381757988</v>
+        <v>9.276437674311818</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.15381141579061</v>
+        <v>23.30874401756238</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.333855821430125</v>
+        <v>13.24484011048976</v>
       </c>
       <c r="D3">
-        <v>1.816243848122911</v>
+        <v>3.552213494770433</v>
       </c>
       <c r="E3">
-        <v>7.924552600288112</v>
+        <v>13.42275561319682</v>
       </c>
       <c r="F3">
-        <v>49.61096023935217</v>
+        <v>67.63492924954576</v>
       </c>
       <c r="G3">
-        <v>2.163322714322478</v>
+        <v>3.863566877662709</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.422653031208442</v>
+        <v>12.72424311231219</v>
       </c>
       <c r="K3">
-        <v>27.57764727140592</v>
+        <v>33.20914451126488</v>
       </c>
       <c r="L3">
-        <v>5.005084245118056</v>
+        <v>9.295975581513707</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.45232599461425</v>
+        <v>23.38382902407303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.120740582716934</v>
+        <v>13.23738718194863</v>
       </c>
       <c r="D4">
-        <v>1.859637686099592</v>
+        <v>3.549571841354696</v>
       </c>
       <c r="E4">
-        <v>7.858839432746133</v>
+        <v>13.43711456427538</v>
       </c>
       <c r="F4">
-        <v>48.76801969828893</v>
+        <v>67.62935827139879</v>
       </c>
       <c r="G4">
-        <v>2.173013841041682</v>
+        <v>3.866955320474344</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.423147829148243</v>
+        <v>12.74432109590926</v>
       </c>
       <c r="K4">
-        <v>26.62386165796705</v>
+        <v>33.09673558127737</v>
       </c>
       <c r="L4">
-        <v>5.024640922737817</v>
+        <v>9.308781006085791</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.63871450640717</v>
+        <v>23.43204865132743</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.034714426936786</v>
+        <v>13.2350931439131</v>
       </c>
       <c r="D5">
-        <v>1.877242045660721</v>
+        <v>3.548510155288024</v>
       </c>
       <c r="E5">
-        <v>7.833241382098997</v>
+        <v>13.44350050168388</v>
       </c>
       <c r="F5">
-        <v>48.43478043901884</v>
+        <v>67.63114583958547</v>
       </c>
       <c r="G5">
-        <v>2.177005946141505</v>
+        <v>3.868377195775272</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.424492925893353</v>
+        <v>12.75294931616154</v>
       </c>
       <c r="K5">
-        <v>26.23264297433477</v>
+        <v>33.05308786768385</v>
       </c>
       <c r="L5">
-        <v>5.032950261509461</v>
+        <v>9.314203365145174</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.71549250010457</v>
+        <v>23.45223202709349</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.020480758780907</v>
+        <v>13.23475711299172</v>
       </c>
       <c r="D6">
-        <v>1.880161575601456</v>
+        <v>3.548334757411008</v>
       </c>
       <c r="E6">
-        <v>7.829061192826512</v>
+        <v>13.44459315659905</v>
       </c>
       <c r="F6">
-        <v>48.38005780347972</v>
+        <v>67.6316873617598</v>
       </c>
       <c r="G6">
-        <v>2.177671582771467</v>
+        <v>3.868615782211197</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.424783682076688</v>
+        <v>12.75440897261197</v>
       </c>
       <c r="K6">
-        <v>26.1675372086092</v>
+        <v>33.04597153151003</v>
       </c>
       <c r="L6">
-        <v>5.034350596464656</v>
+        <v>9.315116085093395</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.72829241181336</v>
+        <v>23.45561571551541</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.11957702288286</v>
+        <v>13.23735323438498</v>
       </c>
       <c r="D7">
-        <v>1.859875373696523</v>
+        <v>3.54955746313239</v>
       </c>
       <c r="E7">
-        <v>7.85848947178442</v>
+        <v>13.43719852334326</v>
       </c>
       <c r="F7">
-        <v>48.76348434007461</v>
+        <v>67.6293659661269</v>
       </c>
       <c r="G7">
-        <v>2.173067498984008</v>
+        <v>3.86697432989844</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.423161415277894</v>
+        <v>12.7444356524425</v>
       </c>
       <c r="K7">
-        <v>26.61859543387628</v>
+        <v>33.09613814726274</v>
       </c>
       <c r="L7">
-        <v>5.024751607098929</v>
+        <v>9.308853306946135</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.63974657087556</v>
+        <v>23.43231868981027</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.563960370005931</v>
+        <v>13.25533118363274</v>
       </c>
       <c r="D8">
-        <v>1.769554912334929</v>
+        <v>3.555083032746023</v>
       </c>
       <c r="E8">
-        <v>7.998805691963401</v>
+        <v>13.40926138617762</v>
       </c>
       <c r="F8">
-        <v>50.5464146112806</v>
+        <v>67.65477726483707</v>
       </c>
       <c r="G8">
-        <v>2.153111670379993</v>
+        <v>3.860090919408241</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.426200239769733</v>
+        <v>12.70434418800381</v>
       </c>
       <c r="K8">
-        <v>28.58599336949849</v>
+        <v>33.33638720044685</v>
       </c>
       <c r="L8">
-        <v>4.985371966859348</v>
+        <v>9.283006780959504</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.25612253976942</v>
+        <v>23.3341945920386</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.45937494675965</v>
+        <v>13.313955779264</v>
       </c>
       <c r="D9">
-        <v>1.586522113649185</v>
+        <v>3.566387707307813</v>
       </c>
       <c r="E9">
-        <v>8.314040807989134</v>
+        <v>13.37136706033461</v>
       </c>
       <c r="F9">
-        <v>54.39360997848672</v>
+        <v>67.83341424391364</v>
       </c>
       <c r="G9">
-        <v>2.114843832459754</v>
+        <v>3.84787396617846</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.473093028895147</v>
+        <v>12.6398259528601</v>
       </c>
       <c r="K9">
-        <v>32.35110055501462</v>
+        <v>33.87303760995298</v>
       </c>
       <c r="L9">
-        <v>4.918720924520657</v>
+        <v>9.238714732357751</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.52643968477799</v>
+        <v>23.15851964493467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.1328405853924</v>
+        <v>13.37117135378045</v>
       </c>
       <c r="D10">
-        <v>1.67690743514055</v>
+        <v>3.574982678543764</v>
       </c>
       <c r="E10">
-        <v>8.57298394836481</v>
+        <v>13.3538391776494</v>
       </c>
       <c r="F10">
-        <v>57.46512880066187</v>
+        <v>68.04358957360964</v>
       </c>
       <c r="G10">
-        <v>2.086761303118142</v>
+        <v>3.839667626053562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.537157752184781</v>
+        <v>12.60103721484394</v>
       </c>
       <c r="K10">
-        <v>35.06390542708173</v>
+        <v>34.30490319411032</v>
       </c>
       <c r="L10">
-        <v>4.876046733202877</v>
+        <v>9.210034059546288</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.00144309942361</v>
+        <v>23.03958494672329</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.44348892667898</v>
+        <v>13.40023844242285</v>
       </c>
       <c r="D11">
-        <v>1.725824804077263</v>
+        <v>3.578956554777186</v>
       </c>
       <c r="E11">
-        <v>8.697560239601593</v>
+        <v>13.34810686844119</v>
       </c>
       <c r="F11">
-        <v>58.92546202139152</v>
+        <v>68.15637478507234</v>
       </c>
       <c r="G11">
-        <v>2.07385642949519</v>
+        <v>3.836098911545052</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.573957806228004</v>
+        <v>12.58526503482144</v>
       </c>
       <c r="K11">
-        <v>36.29013300528444</v>
+        <v>34.50897054346521</v>
       </c>
       <c r="L11">
-        <v>4.857958302832508</v>
+        <v>9.197817053524956</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.764506611985</v>
+        <v>22.98766315730736</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.56186883234545</v>
+        <v>13.41167871638007</v>
       </c>
       <c r="D12">
-        <v>1.744709399904691</v>
+        <v>3.580470624852044</v>
       </c>
       <c r="E12">
-        <v>8.745799620728427</v>
+        <v>13.34625849181139</v>
       </c>
       <c r="F12">
-        <v>59.4886381928634</v>
+        <v>68.20155094911206</v>
       </c>
       <c r="G12">
-        <v>2.068936941187224</v>
+        <v>3.834770975372672</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.589115983495449</v>
+        <v>12.5795621644469</v>
       </c>
       <c r="K12">
-        <v>36.75387742788003</v>
+        <v>34.58728875632644</v>
       </c>
       <c r="L12">
-        <v>4.851294813643601</v>
+        <v>9.193309537633738</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.67502462867823</v>
+        <v>22.96831444753398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.53633789762772</v>
+        <v>13.40919564930971</v>
       </c>
       <c r="D13">
-        <v>1.740624769342964</v>
+        <v>3.58014413054545</v>
       </c>
       <c r="E13">
-        <v>8.73536137120983</v>
+        <v>13.34664223752081</v>
       </c>
       <c r="F13">
-        <v>59.36687441278904</v>
+        <v>68.19171181644606</v>
       </c>
       <c r="G13">
-        <v>2.069998147594452</v>
+        <v>3.835055929737603</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.585794854831589</v>
+        <v>12.58077837814332</v>
       </c>
       <c r="K13">
-        <v>36.65401797064668</v>
+        <v>34.57037601718448</v>
       </c>
       <c r="L13">
-        <v>4.852721710595292</v>
+        <v>9.194275036927479</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.69428582846727</v>
+        <v>22.97246763326402</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.4532122775881</v>
+        <v>13.40117098274397</v>
       </c>
       <c r="D14">
-        <v>1.727370705470306</v>
+        <v>3.579080932551192</v>
       </c>
       <c r="E14">
-        <v>8.701506984729551</v>
+        <v>13.34794834157003</v>
       </c>
       <c r="F14">
-        <v>58.97158340330449</v>
+        <v>68.16004204272819</v>
       </c>
       <c r="G14">
-        <v>2.073452445412727</v>
+        <v>3.83598919232817</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.57517960157556</v>
+        <v>12.58479044867193</v>
       </c>
       <c r="K14">
-        <v>36.32829385897539</v>
+        <v>34.51539324439939</v>
       </c>
       <c r="L14">
-        <v>4.857406389081712</v>
+        <v>9.197443839707512</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.7571401845419</v>
+        <v>22.98606506020878</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.40239703695121</v>
+        <v>13.39631193412355</v>
       </c>
       <c r="D15">
-        <v>1.719301830689405</v>
+        <v>3.578430899220243</v>
       </c>
       <c r="E15">
-        <v>8.680911931932306</v>
+        <v>13.34879034402781</v>
       </c>
       <c r="F15">
-        <v>58.73082003079615</v>
+        <v>68.14096451360147</v>
       </c>
       <c r="G15">
-        <v>2.07556358313593</v>
+        <v>3.836563892244659</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.568840656072884</v>
+        <v>12.5872830932783</v>
       </c>
       <c r="K15">
-        <v>36.12871915129559</v>
+        <v>34.48184887666854</v>
       </c>
       <c r="L15">
-        <v>4.860299999118458</v>
+        <v>9.199400277792135</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.79567092896458</v>
+        <v>22.99443460670755</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.11263498365715</v>
+        <v>13.36933259382522</v>
       </c>
       <c r="D16">
-        <v>1.673756329812215</v>
+        <v>3.574724267855728</v>
       </c>
       <c r="E16">
-        <v>8.564986265188166</v>
+        <v>13.35425890176542</v>
       </c>
       <c r="F16">
-        <v>57.37105004964884</v>
+        <v>68.03656421941086</v>
       </c>
       <c r="G16">
-        <v>2.087600914182103</v>
+        <v>3.839904142463398</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.534916818611863</v>
+        <v>12.60210568577172</v>
       </c>
       <c r="K16">
-        <v>34.98365131953386</v>
+        <v>34.29171564616083</v>
       </c>
       <c r="L16">
-        <v>4.877255160936631</v>
+        <v>9.210849123722245</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.01696256440612</v>
+        <v>23.04302199561226</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.93604812000582</v>
+        <v>13.3535575316161</v>
       </c>
       <c r="D17">
-        <v>1.64636789569158</v>
+        <v>3.572466788994567</v>
       </c>
       <c r="E17">
-        <v>8.495664132368296</v>
+        <v>13.35818776727489</v>
       </c>
       <c r="F17">
-        <v>56.55373106867946</v>
+        <v>67.97691584138515</v>
       </c>
       <c r="G17">
-        <v>2.094942976915011</v>
+        <v>3.84199525371323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.516147351356158</v>
+        <v>12.61167885654112</v>
       </c>
       <c r="K17">
-        <v>34.27949484134159</v>
+        <v>34.1769877870849</v>
       </c>
       <c r="L17">
-        <v>4.887993038568853</v>
+        <v>9.218084803763546</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.15317612409252</v>
+        <v>23.07338708223677</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.8348729282473</v>
+        <v>13.3447704851172</v>
       </c>
       <c r="D18">
-        <v>1.630793240819016</v>
+        <v>3.571174365606423</v>
       </c>
       <c r="E18">
-        <v>8.456423749845566</v>
+        <v>13.36065850295799</v>
       </c>
       <c r="F18">
-        <v>56.08948682915884</v>
+        <v>67.94422465747489</v>
       </c>
       <c r="G18">
-        <v>2.099154678495657</v>
+        <v>3.843213489644019</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.506064015305116</v>
+        <v>12.61736136556468</v>
       </c>
       <c r="K18">
-        <v>33.87370212558093</v>
+        <v>34.11171885113934</v>
       </c>
       <c r="L18">
-        <v>4.894294125671125</v>
+        <v>9.222324729489204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.23170153109933</v>
+        <v>23.09105772521445</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.80068115438093</v>
+        <v>13.34184463254542</v>
       </c>
       <c r="D19">
-        <v>1.625548429174347</v>
+        <v>3.570737805624983</v>
       </c>
       <c r="E19">
-        <v>8.443243751204346</v>
+        <v>13.36153128096893</v>
       </c>
       <c r="F19">
-        <v>55.9332784063791</v>
+        <v>67.93343374685512</v>
       </c>
       <c r="G19">
-        <v>2.100579139245236</v>
+        <v>3.843628628296341</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.502768922270578</v>
+        <v>12.61931562930549</v>
       </c>
       <c r="K19">
-        <v>33.7361607379799</v>
+        <v>34.08974503199153</v>
       </c>
       <c r="L19">
-        <v>4.896449139767423</v>
+        <v>9.223773735324739</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.25832072527051</v>
+        <v>23.09707601365877</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.95480466630053</v>
+        <v>13.35520720391371</v>
       </c>
       <c r="D20">
-        <v>1.649264451194205</v>
+        <v>3.572706478225057</v>
       </c>
       <c r="E20">
-        <v>8.502977610996652</v>
+        <v>13.35774769913102</v>
       </c>
       <c r="F20">
-        <v>56.64012290294569</v>
+        <v>67.98309817374312</v>
       </c>
       <c r="G20">
-        <v>2.094162660085827</v>
+        <v>3.841771050119761</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.518070846359196</v>
+        <v>12.61064152972406</v>
       </c>
       <c r="K20">
-        <v>34.35453109261745</v>
+        <v>34.18912666813726</v>
       </c>
       <c r="L20">
-        <v>4.886837069811674</v>
+        <v>9.217306468636176</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.13865769178312</v>
+        <v>23.070133410101</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.47760680870219</v>
+        <v>13.40351629841204</v>
       </c>
       <c r="D21">
-        <v>1.731253236864517</v>
+        <v>3.579392968119724</v>
       </c>
       <c r="E21">
-        <v>8.711421108769825</v>
+        <v>13.34755595942578</v>
       </c>
       <c r="F21">
-        <v>59.08740331955892</v>
+        <v>68.16927731060052</v>
       </c>
       <c r="G21">
-        <v>2.072438846892966</v>
+        <v>3.835714435263552</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.578263300367971</v>
+        <v>12.58360468341493</v>
       </c>
       <c r="K21">
-        <v>36.42397805327804</v>
+        <v>34.53151515238503</v>
       </c>
       <c r="L21">
-        <v>4.856025369954822</v>
+        <v>9.196509865710143</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.73867198918178</v>
+        <v>22.98206267970258</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.82372534479539</v>
+        <v>13.43761193158825</v>
       </c>
       <c r="D22">
-        <v>1.786990283043722</v>
+        <v>3.583816916825959</v>
       </c>
       <c r="E22">
-        <v>8.853917643919816</v>
+        <v>13.34277378461338</v>
       </c>
       <c r="F22">
-        <v>60.7469301470466</v>
+        <v>68.30533151025413</v>
       </c>
       <c r="G22">
-        <v>2.058041903872964</v>
+        <v>3.831892737836567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.624802254228212</v>
+        <v>12.56750680200059</v>
       </c>
       <c r="K22">
-        <v>37.81634347714628</v>
+        <v>34.76133594460654</v>
       </c>
       <c r="L22">
-        <v>4.836970841178824</v>
+        <v>9.183610283110829</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.47865683340856</v>
+        <v>22.92632707587775</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.63853269375739</v>
+        <v>13.41918502366916</v>
       </c>
       <c r="D23">
-        <v>1.757014332099834</v>
+        <v>3.581450818262632</v>
       </c>
       <c r="E23">
-        <v>8.777255437969027</v>
+        <v>13.34515422571269</v>
       </c>
       <c r="F23">
-        <v>59.8552607893678</v>
+        <v>68.23140316927862</v>
       </c>
       <c r="G23">
-        <v>2.065749425602086</v>
+        <v>3.833920005865045</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.599258924514469</v>
+        <v>12.57595455863483</v>
       </c>
       <c r="K23">
-        <v>37.05323141549168</v>
+        <v>34.63814032173767</v>
       </c>
       <c r="L23">
-        <v>4.84704317682119</v>
+        <v>9.190431877642572</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.61731059012454</v>
+        <v>22.95590762052938</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.94632375983537</v>
+        <v>13.35446050764507</v>
       </c>
       <c r="D24">
-        <v>1.647954390509561</v>
+        <v>3.572598097810671</v>
       </c>
       <c r="E24">
-        <v>8.499669281775573</v>
+        <v>13.35794599367703</v>
       </c>
       <c r="F24">
-        <v>56.60104765648886</v>
+        <v>67.98029815289264</v>
       </c>
       <c r="G24">
-        <v>2.094515469430065</v>
+        <v>3.841872362626422</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.517199039554948</v>
+        <v>12.61110994839128</v>
       </c>
       <c r="K24">
-        <v>34.32061024226303</v>
+        <v>34.18363652803153</v>
       </c>
       <c r="L24">
-        <v>4.887359285116369</v>
+        <v>9.217658104608381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.14522080489363</v>
+        <v>23.07160373067052</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.2145767976546</v>
+        <v>13.29560280236574</v>
       </c>
       <c r="D25">
-        <v>1.636999351351786</v>
+        <v>3.563278944101759</v>
       </c>
       <c r="E25">
-        <v>8.224200982465634</v>
+        <v>13.37980828459988</v>
       </c>
       <c r="F25">
-        <v>53.31251876963555</v>
+        <v>67.77124586476073</v>
       </c>
       <c r="G25">
-        <v>2.125150121635477</v>
+        <v>3.851043004866387</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.455578362794197</v>
+        <v>12.65576853329297</v>
       </c>
       <c r="K25">
-        <v>31.34265805562621</v>
+        <v>33.72107605740167</v>
       </c>
       <c r="L25">
-        <v>4.935634158056777</v>
+        <v>9.250016297268189</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.72170117594553</v>
+        <v>23.20425946182211</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.26178636439901</v>
+        <v>9.686010639752638</v>
       </c>
       <c r="D2">
-        <v>3.556611813870331</v>
+        <v>1.744793893901007</v>
       </c>
       <c r="E2">
-        <v>13.40283408883736</v>
+        <v>8.039444561335664</v>
       </c>
       <c r="F2">
-        <v>67.67035775131886</v>
+        <v>51.05233072187318</v>
       </c>
       <c r="G2">
-        <v>3.858313013601256</v>
+        <v>2.14777903905317</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.69443507458476</v>
+        <v>7.429639746242943</v>
       </c>
       <c r="K2">
-        <v>33.40599697711745</v>
+        <v>29.11294230626082</v>
       </c>
       <c r="L2">
-        <v>9.276437674311818</v>
+        <v>4.975422381758084</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.30874401756238</v>
+        <v>15.15381141579056</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.24484011048976</v>
+        <v>9.333855821430154</v>
       </c>
       <c r="D3">
-        <v>3.552213494770433</v>
+        <v>1.816243848122911</v>
       </c>
       <c r="E3">
-        <v>13.42275561319682</v>
+        <v>7.924552600288112</v>
       </c>
       <c r="F3">
-        <v>67.63492924954576</v>
+        <v>49.61096023935219</v>
       </c>
       <c r="G3">
-        <v>3.863566877662709</v>
+        <v>2.163322714322476</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.72424311231219</v>
+        <v>7.422653031208437</v>
       </c>
       <c r="K3">
-        <v>33.20914451126488</v>
+        <v>27.57764727140592</v>
       </c>
       <c r="L3">
-        <v>9.295975581513707</v>
+        <v>5.005084245118052</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.38382902407303</v>
+        <v>15.45232599461428</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.23738718194863</v>
+        <v>9.120740582716785</v>
       </c>
       <c r="D4">
-        <v>3.549571841354696</v>
+        <v>1.859637686099659</v>
       </c>
       <c r="E4">
-        <v>13.43711456427538</v>
+        <v>7.858839432746012</v>
       </c>
       <c r="F4">
-        <v>67.62935827139879</v>
+        <v>48.76801969828868</v>
       </c>
       <c r="G4">
-        <v>3.866955320474344</v>
+        <v>2.173013841041286</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.74432109590926</v>
+        <v>7.423147829148223</v>
       </c>
       <c r="K4">
-        <v>33.09673558127737</v>
+        <v>26.62386165796697</v>
       </c>
       <c r="L4">
-        <v>9.308781006085791</v>
+        <v>5.024640922737856</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.43204865132743</v>
+        <v>15.63871450640711</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.2350931439131</v>
+        <v>9.034714426936914</v>
       </c>
       <c r="D5">
-        <v>3.548510155288024</v>
+        <v>1.877242045660923</v>
       </c>
       <c r="E5">
-        <v>13.44350050168388</v>
+        <v>7.833241382099108</v>
       </c>
       <c r="F5">
-        <v>67.63114583958547</v>
+        <v>48.43478043901931</v>
       </c>
       <c r="G5">
-        <v>3.868377195775272</v>
+        <v>2.177005946141375</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.75294931616154</v>
+        <v>7.424492925893494</v>
       </c>
       <c r="K5">
-        <v>33.05308786768385</v>
+        <v>26.2326429743349</v>
       </c>
       <c r="L5">
-        <v>9.314203365145174</v>
+        <v>5.032950261509493</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.45223202709349</v>
+        <v>15.71549250010476</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.23475711299172</v>
+        <v>9.020480758780989</v>
       </c>
       <c r="D6">
-        <v>3.548334757411008</v>
+        <v>1.880161575601188</v>
       </c>
       <c r="E6">
-        <v>13.44459315659905</v>
+        <v>7.829061192826567</v>
       </c>
       <c r="F6">
-        <v>67.6316873617598</v>
+        <v>48.38005780347962</v>
       </c>
       <c r="G6">
-        <v>3.868615782211197</v>
+        <v>2.177671582771995</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.75440897261197</v>
+        <v>7.424783682076639</v>
       </c>
       <c r="K6">
-        <v>33.04597153151003</v>
+        <v>26.16753720860912</v>
       </c>
       <c r="L6">
-        <v>9.315116085093395</v>
+        <v>5.034350596464688</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.45561571551541</v>
+        <v>15.72829241181333</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.23735323438498</v>
+        <v>9.119577022882776</v>
       </c>
       <c r="D7">
-        <v>3.54955746313239</v>
+        <v>1.859875373696658</v>
       </c>
       <c r="E7">
-        <v>13.43719852334326</v>
+        <v>7.85848947178428</v>
       </c>
       <c r="F7">
-        <v>67.6293659661269</v>
+        <v>48.76348434007443</v>
       </c>
       <c r="G7">
-        <v>3.86697432989844</v>
+        <v>2.173067498983739</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.7444356524425</v>
+        <v>7.42316141527784</v>
       </c>
       <c r="K7">
-        <v>33.09613814726274</v>
+        <v>26.61859543387629</v>
       </c>
       <c r="L7">
-        <v>9.308853306946135</v>
+        <v>5.024751607098874</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.43231868981027</v>
+        <v>15.63974657087547</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.25533118363274</v>
+        <v>9.563960370005688</v>
       </c>
       <c r="D8">
-        <v>3.555083032746023</v>
+        <v>1.769554912334929</v>
       </c>
       <c r="E8">
-        <v>13.40926138617762</v>
+        <v>7.998805691963359</v>
       </c>
       <c r="F8">
-        <v>67.65477726483707</v>
+        <v>50.54641461128051</v>
       </c>
       <c r="G8">
-        <v>3.860090919408241</v>
+        <v>2.153111670379865</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.70434418800381</v>
+        <v>7.426200239769642</v>
       </c>
       <c r="K8">
-        <v>33.33638720044685</v>
+        <v>28.58599336949849</v>
       </c>
       <c r="L8">
-        <v>9.283006780959504</v>
+        <v>4.985371966859358</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.3341945920386</v>
+        <v>15.25612253976938</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.313955779264</v>
+        <v>10.45937494675963</v>
       </c>
       <c r="D9">
-        <v>3.566387707307813</v>
+        <v>1.586522113649252</v>
       </c>
       <c r="E9">
-        <v>13.37136706033461</v>
+        <v>8.314040807989134</v>
       </c>
       <c r="F9">
-        <v>67.83341424391364</v>
+        <v>54.39360997848664</v>
       </c>
       <c r="G9">
-        <v>3.84787396617846</v>
+        <v>2.114843832459624</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.6398259528601</v>
+        <v>7.473093028895131</v>
       </c>
       <c r="K9">
-        <v>33.87303760995298</v>
+        <v>32.35110055501461</v>
       </c>
       <c r="L9">
-        <v>9.238714732357751</v>
+        <v>4.918720924520631</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.15851964493467</v>
+        <v>14.52643968477798</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.37117135378045</v>
+        <v>11.13284058539244</v>
       </c>
       <c r="D10">
-        <v>3.574982678543764</v>
+        <v>1.676907435140603</v>
       </c>
       <c r="E10">
-        <v>13.3538391776494</v>
+        <v>8.572983948364795</v>
       </c>
       <c r="F10">
-        <v>68.04358957360964</v>
+        <v>57.4651288006619</v>
       </c>
       <c r="G10">
-        <v>3.839667626053562</v>
+        <v>2.086761303118142</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.60103721484394</v>
+        <v>7.53715775218476</v>
       </c>
       <c r="K10">
-        <v>34.30490319411032</v>
+        <v>35.06390542708169</v>
       </c>
       <c r="L10">
-        <v>9.210034059546288</v>
+        <v>4.876046733202819</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.03958494672329</v>
+        <v>14.00144309942367</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.40023844242285</v>
+        <v>11.44348892667895</v>
       </c>
       <c r="D11">
-        <v>3.578956554777186</v>
+        <v>1.725824804077083</v>
       </c>
       <c r="E11">
-        <v>13.34810686844119</v>
+        <v>8.697560239601533</v>
       </c>
       <c r="F11">
-        <v>68.15637478507234</v>
+        <v>58.92546202139143</v>
       </c>
       <c r="G11">
-        <v>3.836098911545052</v>
+        <v>2.073856429495317</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.58526503482144</v>
+        <v>7.57395780622797</v>
       </c>
       <c r="K11">
-        <v>34.50897054346521</v>
+        <v>36.29013300528443</v>
       </c>
       <c r="L11">
-        <v>9.197817053524956</v>
+        <v>4.857958302832504</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.98766315730736</v>
+        <v>13.76450661198495</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.41167871638007</v>
+        <v>11.56186883234553</v>
       </c>
       <c r="D12">
-        <v>3.580470624852044</v>
+        <v>1.744709399904691</v>
       </c>
       <c r="E12">
-        <v>13.34625849181139</v>
+        <v>8.745799620728413</v>
       </c>
       <c r="F12">
-        <v>68.20155094911206</v>
+        <v>59.48863819286355</v>
       </c>
       <c r="G12">
-        <v>3.834770975372672</v>
+        <v>2.068936941187098</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.5795621644469</v>
+        <v>7.589115983495483</v>
       </c>
       <c r="K12">
-        <v>34.58728875632644</v>
+        <v>36.7538774278801</v>
       </c>
       <c r="L12">
-        <v>9.193309537633738</v>
+        <v>4.851294813643508</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.96831444753398</v>
+        <v>13.67502462867826</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.40919564930971</v>
+        <v>11.5363378976277</v>
       </c>
       <c r="D13">
-        <v>3.58014413054545</v>
+        <v>1.740624769343045</v>
       </c>
       <c r="E13">
-        <v>13.34664223752081</v>
+        <v>8.735361371209882</v>
       </c>
       <c r="F13">
-        <v>68.19171181644606</v>
+        <v>59.36687441278919</v>
       </c>
       <c r="G13">
-        <v>3.835055929737603</v>
+        <v>2.069998147594458</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.58077837814332</v>
+        <v>7.585794854831589</v>
       </c>
       <c r="K13">
-        <v>34.57037601718448</v>
+        <v>36.6540179706467</v>
       </c>
       <c r="L13">
-        <v>9.194275036927479</v>
+        <v>4.852721710595329</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.97246763326402</v>
+        <v>13.69428582846725</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.40117098274397</v>
+        <v>11.45321227758817</v>
       </c>
       <c r="D14">
-        <v>3.579080932551192</v>
+        <v>1.727370705470122</v>
       </c>
       <c r="E14">
-        <v>13.34794834157003</v>
+        <v>8.701506984729521</v>
       </c>
       <c r="F14">
-        <v>68.16004204272819</v>
+        <v>58.97158340330447</v>
       </c>
       <c r="G14">
-        <v>3.83598919232817</v>
+        <v>2.073452445412865</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.58479044867193</v>
+        <v>7.575179601575592</v>
       </c>
       <c r="K14">
-        <v>34.51539324439939</v>
+        <v>36.32829385897537</v>
       </c>
       <c r="L14">
-        <v>9.197443839707512</v>
+        <v>4.857406389081592</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.98606506020878</v>
+        <v>13.75714018454193</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.39631193412355</v>
+        <v>11.40239703695127</v>
       </c>
       <c r="D15">
-        <v>3.578430899220243</v>
+        <v>1.719301830689399</v>
       </c>
       <c r="E15">
-        <v>13.34879034402781</v>
+        <v>8.680911931932249</v>
       </c>
       <c r="F15">
-        <v>68.14096451360147</v>
+        <v>58.73082003079612</v>
       </c>
       <c r="G15">
-        <v>3.836563892244659</v>
+        <v>2.075563583136063</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.5872830932783</v>
+        <v>7.568840656072871</v>
       </c>
       <c r="K15">
-        <v>34.48184887666854</v>
+        <v>36.12871915129566</v>
       </c>
       <c r="L15">
-        <v>9.199400277792135</v>
+        <v>4.860299999118324</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.99443460670755</v>
+        <v>13.79567092896442</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.36933259382522</v>
+        <v>11.11263498365707</v>
       </c>
       <c r="D16">
-        <v>3.574724267855728</v>
+        <v>1.673756329812152</v>
       </c>
       <c r="E16">
-        <v>13.35425890176542</v>
+        <v>8.564986265188073</v>
       </c>
       <c r="F16">
-        <v>68.03656421941086</v>
+        <v>57.37105004964891</v>
       </c>
       <c r="G16">
-        <v>3.839904142463398</v>
+        <v>2.087600914181965</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.60210568577172</v>
+        <v>7.534916818611803</v>
       </c>
       <c r="K16">
-        <v>34.29171564616083</v>
+        <v>34.98365131953383</v>
       </c>
       <c r="L16">
-        <v>9.210849123722245</v>
+        <v>4.877255160936518</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.04302199561226</v>
+        <v>14.01696256440626</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.3535575316161</v>
+        <v>10.9360481200058</v>
       </c>
       <c r="D17">
-        <v>3.572466788994567</v>
+        <v>1.646367895691326</v>
       </c>
       <c r="E17">
-        <v>13.35818776727489</v>
+        <v>8.495664132368265</v>
       </c>
       <c r="F17">
-        <v>67.97691584138515</v>
+        <v>56.55373106867937</v>
       </c>
       <c r="G17">
-        <v>3.84199525371323</v>
+        <v>2.094942976914612</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.61167885654112</v>
+        <v>7.516147351356167</v>
       </c>
       <c r="K17">
-        <v>34.1769877870849</v>
+        <v>34.2794948413416</v>
       </c>
       <c r="L17">
-        <v>9.218084803763546</v>
+        <v>4.887993038568805</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.07338708223677</v>
+        <v>14.15317612409244</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.3447704851172</v>
+        <v>10.83487292824731</v>
       </c>
       <c r="D18">
-        <v>3.571174365606423</v>
+        <v>1.630793240818825</v>
       </c>
       <c r="E18">
-        <v>13.36065850295799</v>
+        <v>8.456423749845539</v>
       </c>
       <c r="F18">
-        <v>67.94422465747489</v>
+        <v>56.08948682915891</v>
       </c>
       <c r="G18">
-        <v>3.843213489644019</v>
+        <v>2.099154678495522</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.61736136556468</v>
+        <v>7.506064015305121</v>
       </c>
       <c r="K18">
-        <v>34.11171885113934</v>
+        <v>33.87370212558096</v>
       </c>
       <c r="L18">
-        <v>9.222324729489204</v>
+        <v>4.894294125671067</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.09105772521445</v>
+        <v>14.23170153109934</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.34184463254542</v>
+        <v>10.80068115438097</v>
       </c>
       <c r="D19">
-        <v>3.570737805624983</v>
+        <v>1.625548429174353</v>
       </c>
       <c r="E19">
-        <v>13.36153128096893</v>
+        <v>8.443243751204289</v>
       </c>
       <c r="F19">
-        <v>67.93343374685512</v>
+        <v>55.93327840637892</v>
       </c>
       <c r="G19">
-        <v>3.843628628296341</v>
+        <v>2.100579139245498</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.61931562930549</v>
+        <v>7.502768922270513</v>
       </c>
       <c r="K19">
-        <v>34.08974503199153</v>
+        <v>33.7361607379799</v>
       </c>
       <c r="L19">
-        <v>9.223773735324739</v>
+        <v>4.896449139767304</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.09707601365877</v>
+        <v>14.25832072527036</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.35520720391371</v>
+        <v>10.95480466630049</v>
       </c>
       <c r="D20">
-        <v>3.572706478225057</v>
+        <v>1.649264451194204</v>
       </c>
       <c r="E20">
-        <v>13.35774769913102</v>
+        <v>8.502977610996567</v>
       </c>
       <c r="F20">
-        <v>67.98309817374312</v>
+        <v>56.64012290294578</v>
       </c>
       <c r="G20">
-        <v>3.841771050119761</v>
+        <v>2.094162660086087</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.61064152972406</v>
+        <v>7.518070846359132</v>
       </c>
       <c r="K20">
-        <v>34.18912666813726</v>
+        <v>34.35453109261747</v>
       </c>
       <c r="L20">
-        <v>9.217306468636176</v>
+        <v>4.886837069811564</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.070133410101</v>
+        <v>14.13865769178318</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.40351629841204</v>
+        <v>11.4776068087022</v>
       </c>
       <c r="D21">
-        <v>3.579392968119724</v>
+        <v>1.731253236864268</v>
       </c>
       <c r="E21">
-        <v>13.34755595942578</v>
+        <v>8.711421108769816</v>
       </c>
       <c r="F21">
-        <v>68.16927731060052</v>
+        <v>59.08740331955881</v>
       </c>
       <c r="G21">
-        <v>3.835714435263552</v>
+        <v>2.072438846892839</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.58360468341493</v>
+        <v>7.578263300368011</v>
       </c>
       <c r="K21">
-        <v>34.53151515238503</v>
+        <v>36.42397805327806</v>
       </c>
       <c r="L21">
-        <v>9.196509865710143</v>
+        <v>4.856025369954761</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.98206267970258</v>
+        <v>13.73867198918167</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.43761193158825</v>
+        <v>11.82372534479537</v>
       </c>
       <c r="D22">
-        <v>3.583816916825959</v>
+        <v>1.786990283043669</v>
       </c>
       <c r="E22">
-        <v>13.34277378461338</v>
+        <v>8.853917643919806</v>
       </c>
       <c r="F22">
-        <v>68.30533151025413</v>
+        <v>60.74693014704664</v>
       </c>
       <c r="G22">
-        <v>3.831892737836567</v>
+        <v>2.058041903873227</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.56750680200059</v>
+        <v>7.624802254228181</v>
       </c>
       <c r="K22">
-        <v>34.76133594460654</v>
+        <v>37.81634347714641</v>
       </c>
       <c r="L22">
-        <v>9.183610283110829</v>
+        <v>4.836970841178741</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.92632707587775</v>
+        <v>13.47865683340851</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.41918502366916</v>
+        <v>11.63853269375739</v>
       </c>
       <c r="D23">
-        <v>3.581450818262632</v>
+        <v>1.757014332099782</v>
       </c>
       <c r="E23">
-        <v>13.34515422571269</v>
+        <v>8.77725543796897</v>
       </c>
       <c r="F23">
-        <v>68.23140316927862</v>
+        <v>59.85526078936783</v>
       </c>
       <c r="G23">
-        <v>3.833920005865045</v>
+        <v>2.065749425601822</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.57595455863483</v>
+        <v>7.599258924514425</v>
       </c>
       <c r="K23">
-        <v>34.63814032173767</v>
+        <v>37.05323141549164</v>
       </c>
       <c r="L23">
-        <v>9.190431877642572</v>
+        <v>4.847043176821163</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.95590762052938</v>
+        <v>13.61731059012462</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.35446050764507</v>
+        <v>10.94632375983532</v>
       </c>
       <c r="D24">
-        <v>3.572598097810671</v>
+        <v>1.647954390509513</v>
       </c>
       <c r="E24">
-        <v>13.35794599367703</v>
+        <v>8.499669281775533</v>
       </c>
       <c r="F24">
-        <v>67.98029815289264</v>
+        <v>56.60104765648872</v>
       </c>
       <c r="G24">
-        <v>3.841872362626422</v>
+        <v>2.094515469430209</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.61110994839128</v>
+        <v>7.517199039554932</v>
       </c>
       <c r="K24">
-        <v>34.18363652803153</v>
+        <v>34.32061024226303</v>
       </c>
       <c r="L24">
-        <v>9.217658104608381</v>
+        <v>4.887359285116406</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.07160373067052</v>
+        <v>14.14522080489358</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.29560280236574</v>
+        <v>10.21457679765461</v>
       </c>
       <c r="D25">
-        <v>3.563278944101759</v>
+        <v>1.636999351351651</v>
       </c>
       <c r="E25">
-        <v>13.37980828459988</v>
+        <v>8.224200982465547</v>
       </c>
       <c r="F25">
-        <v>67.77124586476073</v>
+        <v>53.31251876963549</v>
       </c>
       <c r="G25">
-        <v>3.851043004866387</v>
+        <v>2.125150121635615</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.65576853329297</v>
+        <v>7.455578362794101</v>
       </c>
       <c r="K25">
-        <v>33.72107605740167</v>
+        <v>31.34265805562618</v>
       </c>
       <c r="L25">
-        <v>9.250016297268189</v>
+        <v>4.935634158056708</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.20425946182211</v>
+        <v>14.72170117594554</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.686010639752638</v>
+        <v>8.15864061097527</v>
       </c>
       <c r="D2">
-        <v>1.744793893901007</v>
+        <v>4.565742254600882</v>
       </c>
       <c r="E2">
-        <v>8.039444561335664</v>
+        <v>8.609009751806212</v>
       </c>
       <c r="F2">
-        <v>51.05233072187318</v>
+        <v>39.38991881114428</v>
       </c>
       <c r="G2">
-        <v>2.14777903905317</v>
+        <v>61.05322602556755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.576122695130787</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.985618059005505</v>
       </c>
       <c r="J2">
-        <v>7.429639746242943</v>
+        <v>16.53213051975311</v>
       </c>
       <c r="K2">
-        <v>29.11294230626082</v>
+        <v>30.18677228301945</v>
       </c>
       <c r="L2">
-        <v>4.975422381758084</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.15381141579056</v>
+        <v>5.709640589874666</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>34.45758530577984</v>
+      </c>
+      <c r="P2">
+        <v>18.59978490657429</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.333855821430154</v>
+        <v>7.85236294439289</v>
       </c>
       <c r="D3">
-        <v>1.816243848122911</v>
+        <v>4.470491542723056</v>
       </c>
       <c r="E3">
-        <v>7.924552600288112</v>
+        <v>8.395672310388376</v>
       </c>
       <c r="F3">
-        <v>49.61096023935219</v>
+        <v>37.15296108967166</v>
       </c>
       <c r="G3">
-        <v>2.163322714322476</v>
+        <v>57.34935692269934</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.221628611708895</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.649313392082098</v>
       </c>
       <c r="J3">
-        <v>7.422653031208437</v>
+        <v>15.7905925551248</v>
       </c>
       <c r="K3">
-        <v>27.57764727140592</v>
+        <v>28.68543430256231</v>
       </c>
       <c r="L3">
-        <v>5.005084245118052</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.45232599461428</v>
+        <v>5.648970459347972</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>32.29847624678525</v>
+      </c>
+      <c r="P3">
+        <v>17.87897146544132</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.120740582716785</v>
+        <v>7.659927424739823</v>
       </c>
       <c r="D4">
-        <v>1.859637686099659</v>
+        <v>4.409671041548854</v>
       </c>
       <c r="E4">
-        <v>7.858839432746012</v>
+        <v>8.26076225840532</v>
       </c>
       <c r="F4">
-        <v>48.76801969828868</v>
+        <v>35.72302757746986</v>
       </c>
       <c r="G4">
-        <v>2.173013841041286</v>
+        <v>54.96928234476708</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.997955536874248</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.437098515025476</v>
       </c>
       <c r="J4">
-        <v>7.423147829148223</v>
+        <v>15.32217566820898</v>
       </c>
       <c r="K4">
-        <v>26.62386165796697</v>
+        <v>27.7290974660399</v>
       </c>
       <c r="L4">
-        <v>5.024640922737856</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.63871450640711</v>
+        <v>5.610263301972641</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>30.89326997771918</v>
+      </c>
+      <c r="P4">
+        <v>17.42372533953428</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.034714426936914</v>
+        <v>7.580666798443017</v>
       </c>
       <c r="D5">
-        <v>1.877242045660923</v>
+        <v>4.381880369389118</v>
       </c>
       <c r="E5">
-        <v>7.833241382099108</v>
+        <v>8.204391781350399</v>
       </c>
       <c r="F5">
-        <v>48.43478043901931</v>
+        <v>35.10965486048245</v>
       </c>
       <c r="G5">
-        <v>2.177005946141375</v>
+        <v>53.9429773104651</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.904362905828451</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.348746483747635</v>
       </c>
       <c r="J5">
-        <v>7.424492925893494</v>
+        <v>15.12160936476661</v>
       </c>
       <c r="K5">
-        <v>26.2326429743349</v>
+        <v>27.31502235383937</v>
       </c>
       <c r="L5">
-        <v>5.032950261509493</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.71549250010476</v>
+        <v>5.593557171907728</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>30.29171283400801</v>
+      </c>
+      <c r="P5">
+        <v>17.23698596287793</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.020480758780989</v>
+        <v>7.567857438581549</v>
       </c>
       <c r="D6">
-        <v>1.880161575601188</v>
+        <v>4.374266311941248</v>
       </c>
       <c r="E6">
-        <v>7.829061192826567</v>
+        <v>8.1945197497778</v>
       </c>
       <c r="F6">
-        <v>48.38005780347962</v>
+        <v>34.98636262201105</v>
       </c>
       <c r="G6">
-        <v>2.177671582771995</v>
+        <v>53.73406120026812</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.887653307548776</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.333680330027625</v>
       </c>
       <c r="J6">
-        <v>7.424783682076639</v>
+        <v>15.08008375808642</v>
       </c>
       <c r="K6">
-        <v>26.16753720860912</v>
+        <v>27.22619830880335</v>
       </c>
       <c r="L6">
-        <v>5.034350596464688</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.72829241181333</v>
+        <v>5.590082261066324</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>30.17964015929071</v>
+      </c>
+      <c r="P6">
+        <v>17.20790827150329</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.119577022882776</v>
+        <v>7.659983239120793</v>
       </c>
       <c r="D7">
-        <v>1.859875373696658</v>
+        <v>4.401243503969949</v>
       </c>
       <c r="E7">
-        <v>7.85848947178428</v>
+        <v>8.258800714003987</v>
       </c>
       <c r="F7">
-        <v>48.76348434007443</v>
+        <v>35.65952146710266</v>
       </c>
       <c r="G7">
-        <v>2.173067498983739</v>
+        <v>54.85670241179103</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.993787552109695</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.434731317914745</v>
       </c>
       <c r="J7">
-        <v>7.42316141527784</v>
+        <v>15.2978217200305</v>
       </c>
       <c r="K7">
-        <v>26.61859543387629</v>
+        <v>27.67091542022805</v>
       </c>
       <c r="L7">
-        <v>5.024751607098874</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.63974657087547</v>
+        <v>5.608186999248028</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>30.85590485001327</v>
+      </c>
+      <c r="P7">
+        <v>17.42690600614665</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.563960370005688</v>
+        <v>8.055322030852508</v>
       </c>
       <c r="D8">
-        <v>1.769554912334929</v>
+        <v>4.522942396129884</v>
       </c>
       <c r="E8">
-        <v>7.998805691963359</v>
+        <v>8.5347241056066</v>
       </c>
       <c r="F8">
-        <v>50.54641461128051</v>
+        <v>38.56181977060651</v>
       </c>
       <c r="G8">
-        <v>2.153111670379865</v>
+        <v>59.67611636836773</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.451323920128151</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.86863400882898</v>
       </c>
       <c r="J8">
-        <v>7.426200239769642</v>
+        <v>16.25194022089107</v>
       </c>
       <c r="K8">
-        <v>28.58599336949849</v>
+        <v>29.61044767127545</v>
       </c>
       <c r="L8">
-        <v>4.985371966859358</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.25612253976938</v>
+        <v>5.686581699981891</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>33.69358311633627</v>
+      </c>
+      <c r="P8">
+        <v>18.36130473396849</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.45937494675963</v>
+        <v>8.797073262591855</v>
       </c>
       <c r="D9">
-        <v>1.586522113649252</v>
+        <v>4.756795774966744</v>
       </c>
       <c r="E9">
-        <v>8.314040807989134</v>
+        <v>9.048692676751594</v>
       </c>
       <c r="F9">
-        <v>54.39360997848664</v>
+        <v>43.88417123671415</v>
       </c>
       <c r="G9">
-        <v>2.114843832459624</v>
+        <v>68.43641610824933</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.308547876491705</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.68013122086338</v>
       </c>
       <c r="J9">
-        <v>7.473093028895131</v>
+        <v>18.04870795895698</v>
       </c>
       <c r="K9">
-        <v>32.35110055501461</v>
+        <v>33.21677292577686</v>
       </c>
       <c r="L9">
-        <v>4.918720924520631</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.52643968477798</v>
+        <v>5.832584180929602</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>38.67419921021739</v>
+      </c>
+      <c r="P9">
+        <v>20.07411596074727</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.13284058539244</v>
+        <v>9.327364489906703</v>
       </c>
       <c r="D10">
-        <v>1.676907435140603</v>
+        <v>4.879510274682501</v>
       </c>
       <c r="E10">
-        <v>8.572983948364795</v>
+        <v>9.441074295425993</v>
       </c>
       <c r="F10">
-        <v>57.4651288006619</v>
+        <v>47.28295071147853</v>
       </c>
       <c r="G10">
-        <v>2.086761303118142</v>
+        <v>73.95711077189766</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.892694172314347</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.240383516931499</v>
       </c>
       <c r="J10">
-        <v>7.53715775218476</v>
+        <v>19.2038004546122</v>
       </c>
       <c r="K10">
-        <v>35.06390542708169</v>
+        <v>35.47849852510544</v>
       </c>
       <c r="L10">
-        <v>4.876046733202819</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.00144309942367</v>
+        <v>5.953159964747259</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>41.76664830873247</v>
+      </c>
+      <c r="P10">
+        <v>21.2949822628511</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.44348892667895</v>
+        <v>9.597640275690999</v>
       </c>
       <c r="D11">
-        <v>1.725824804077083</v>
+        <v>4.638195699924067</v>
       </c>
       <c r="E11">
-        <v>8.697560239601533</v>
+        <v>10.02998099087694</v>
       </c>
       <c r="F11">
-        <v>58.92546202139143</v>
+        <v>46.98423241695522</v>
       </c>
       <c r="G11">
-        <v>2.073856429495317</v>
+        <v>73.22375796354143</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.463346416860634</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.382086240406284</v>
       </c>
       <c r="J11">
-        <v>7.57395780622797</v>
+        <v>18.97782261462924</v>
       </c>
       <c r="K11">
-        <v>36.29013300528443</v>
+        <v>34.82759590985599</v>
       </c>
       <c r="L11">
-        <v>4.857958302832504</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.76450661198495</v>
+        <v>6.286923304792265</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>41.58308944285253</v>
+      </c>
+      <c r="P11">
+        <v>22.16379961000482</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.56186883234553</v>
+        <v>9.752626351029562</v>
       </c>
       <c r="D12">
-        <v>1.744709399904691</v>
+        <v>4.429029608728709</v>
       </c>
       <c r="E12">
-        <v>8.745799620728413</v>
+        <v>10.63790260098001</v>
       </c>
       <c r="F12">
-        <v>59.48863819286355</v>
+        <v>46.081507621542</v>
       </c>
       <c r="G12">
-        <v>2.068936941187098</v>
+        <v>71.56054668460682</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.356325550385084</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.393598960607858</v>
       </c>
       <c r="J12">
-        <v>7.589115983495483</v>
+        <v>18.56602938662155</v>
       </c>
       <c r="K12">
-        <v>36.7538774278801</v>
+        <v>33.85876690534855</v>
       </c>
       <c r="L12">
-        <v>4.851294813643508</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.67502462867826</v>
+        <v>6.683898805767086</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>40.81630638645235</v>
+      </c>
+      <c r="P12">
+        <v>22.64293892497055</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.5363378976277</v>
+        <v>9.829435080194804</v>
       </c>
       <c r="D13">
-        <v>1.740624769343045</v>
+        <v>4.221441803215613</v>
       </c>
       <c r="E13">
-        <v>8.735361371209882</v>
+        <v>11.27140602906996</v>
       </c>
       <c r="F13">
-        <v>59.36687441278919</v>
+        <v>44.56045372950959</v>
       </c>
       <c r="G13">
-        <v>2.069998147594458</v>
+        <v>68.90427385635675</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.390782571460593</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.302981081575648</v>
       </c>
       <c r="J13">
-        <v>7.585794854831589</v>
+        <v>17.94680374697569</v>
       </c>
       <c r="K13">
-        <v>36.6540179706467</v>
+        <v>32.49294200942326</v>
       </c>
       <c r="L13">
-        <v>4.852721710595329</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.69428582846725</v>
+        <v>7.127659542828178</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>39.4980895107788</v>
+      </c>
+      <c r="P13">
+        <v>22.86766723488677</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.45321227758817</v>
+        <v>9.85570029142918</v>
       </c>
       <c r="D14">
-        <v>1.727370705470122</v>
+        <v>4.078123614060875</v>
       </c>
       <c r="E14">
-        <v>8.701506984729521</v>
+        <v>11.73850306909449</v>
       </c>
       <c r="F14">
-        <v>58.97158340330447</v>
+        <v>43.18323397461228</v>
       </c>
       <c r="G14">
-        <v>2.073452445412865</v>
+        <v>66.53651232825337</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.178027889968719</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.193850415263535</v>
       </c>
       <c r="J14">
-        <v>7.575179601575592</v>
+        <v>17.40766510563252</v>
       </c>
       <c r="K14">
-        <v>36.32829385897537</v>
+        <v>31.32912966129268</v>
       </c>
       <c r="L14">
-        <v>4.857406389081592</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.75714018454193</v>
+        <v>7.463355063127554</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>38.30022395518893</v>
+      </c>
+      <c r="P14">
+        <v>22.9134787001027</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.40239703695127</v>
+        <v>9.844260849563687</v>
       </c>
       <c r="D15">
-        <v>1.719301830689399</v>
+        <v>4.040654448333585</v>
       </c>
       <c r="E15">
-        <v>8.680911931932249</v>
+        <v>11.83579759081464</v>
       </c>
       <c r="F15">
-        <v>58.73082003079612</v>
+        <v>42.69496112756255</v>
       </c>
       <c r="G15">
-        <v>2.075563583136063</v>
+        <v>65.71008430513999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.353423588942226</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.144259597575854</v>
       </c>
       <c r="J15">
-        <v>7.568840656072871</v>
+        <v>17.22457066126423</v>
       </c>
       <c r="K15">
-        <v>36.12871915129566</v>
+        <v>30.94242365746282</v>
       </c>
       <c r="L15">
-        <v>4.860299999118324</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.79567092896442</v>
+        <v>7.536261770055861</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>37.87822681541559</v>
+      </c>
+      <c r="P15">
+        <v>22.87171765154063</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.11263498365707</v>
+        <v>9.612191120377034</v>
       </c>
       <c r="D16">
-        <v>1.673756329812152</v>
+        <v>4.026779498996253</v>
       </c>
       <c r="E16">
-        <v>8.564986265188073</v>
+        <v>11.55904352383936</v>
       </c>
       <c r="F16">
-        <v>57.37105004964891</v>
+        <v>41.45033626664761</v>
       </c>
       <c r="G16">
-        <v>2.087600914181965</v>
+        <v>63.70350490066195</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.029492360121919</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.923839083727226</v>
       </c>
       <c r="J16">
-        <v>7.534916818611803</v>
+        <v>16.81830831224459</v>
       </c>
       <c r="K16">
-        <v>34.98365131953383</v>
+        <v>30.16197470972012</v>
       </c>
       <c r="L16">
-        <v>4.877255160936518</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.01696256440626</v>
+        <v>7.392555818344533</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>36.76487481656257</v>
+      </c>
+      <c r="P16">
+        <v>22.33288285288521</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.9360481200058</v>
+        <v>9.413165087287265</v>
       </c>
       <c r="D17">
-        <v>1.646367895691326</v>
+        <v>4.09002462322142</v>
       </c>
       <c r="E17">
-        <v>8.495664132368265</v>
+        <v>11.07565769032233</v>
       </c>
       <c r="F17">
-        <v>56.55373106867937</v>
+        <v>41.24840377403282</v>
       </c>
       <c r="G17">
-        <v>2.094942976914612</v>
+        <v>63.46117796436214</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.304854943002974</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.812065745097883</v>
       </c>
       <c r="J17">
-        <v>7.516147351356167</v>
+        <v>16.80102711508395</v>
       </c>
       <c r="K17">
-        <v>34.2794948413416</v>
+        <v>30.1997494768106</v>
       </c>
       <c r="L17">
-        <v>4.887993038568805</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.15317612409244</v>
+        <v>7.091996453137588</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>36.56211080394213</v>
+      </c>
+      <c r="P17">
+        <v>21.88797735800635</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.83487292824731</v>
+        <v>9.231995210115338</v>
       </c>
       <c r="D18">
-        <v>1.630793240818825</v>
+        <v>4.239739502286946</v>
       </c>
       <c r="E18">
-        <v>8.456423749845539</v>
+        <v>10.42264876041776</v>
       </c>
       <c r="F18">
-        <v>56.08948682915891</v>
+        <v>41.96885346360249</v>
       </c>
       <c r="G18">
-        <v>2.099154678495522</v>
+        <v>64.79707025799529</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.224266064326604</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.785273862116213</v>
       </c>
       <c r="J18">
-        <v>7.506064015305121</v>
+        <v>17.13256055142019</v>
       </c>
       <c r="K18">
-        <v>33.87370212558096</v>
+        <v>30.98653262889843</v>
       </c>
       <c r="L18">
-        <v>4.894294125671067</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.23170153109934</v>
+        <v>6.670760882403814</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>37.15512165820945</v>
+      </c>
+      <c r="P18">
+        <v>21.4751139442341</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.80068115438097</v>
+        <v>9.121892140054722</v>
       </c>
       <c r="D19">
-        <v>1.625548429174353</v>
+        <v>4.447584847852968</v>
       </c>
       <c r="E19">
-        <v>8.443243751204289</v>
+        <v>9.801291360064223</v>
       </c>
       <c r="F19">
-        <v>55.93327840637892</v>
+        <v>43.27505382013499</v>
       </c>
       <c r="G19">
-        <v>2.100579139245498</v>
+        <v>67.1226106221051</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.162128883176297</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.833339572648994</v>
       </c>
       <c r="J19">
-        <v>7.502768922270513</v>
+        <v>17.67811483295358</v>
       </c>
       <c r="K19">
-        <v>33.7361607379799</v>
+        <v>32.21906462967528</v>
       </c>
       <c r="L19">
-        <v>4.896449139767304</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.25832072527036</v>
+        <v>6.256241931743112</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>38.28624147660982</v>
+      </c>
+      <c r="P19">
+        <v>21.13382410777092</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.95480466630049</v>
+        <v>9.192689912165729</v>
       </c>
       <c r="D20">
-        <v>1.649264451194204</v>
+        <v>4.823351108805748</v>
       </c>
       <c r="E20">
-        <v>8.502977610996567</v>
+        <v>9.336926003555511</v>
       </c>
       <c r="F20">
-        <v>56.64012290294578</v>
+        <v>46.25965850140205</v>
       </c>
       <c r="G20">
-        <v>2.094162660086087</v>
+        <v>72.27725195561447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.730267848426069</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.089705808532075</v>
       </c>
       <c r="J20">
-        <v>7.518070846359132</v>
+        <v>18.84424783012969</v>
       </c>
       <c r="K20">
-        <v>34.35453109261747</v>
+        <v>34.75112401252661</v>
       </c>
       <c r="L20">
-        <v>4.886837069811564</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.13865769178318</v>
+        <v>5.916644306724446</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>40.89879590001828</v>
+      </c>
+      <c r="P20">
+        <v>20.99762043242861</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.4776068087022</v>
+        <v>9.596005073083051</v>
       </c>
       <c r="D21">
-        <v>1.731253236864268</v>
+        <v>4.971148043697561</v>
       </c>
       <c r="E21">
-        <v>8.711421108769816</v>
+        <v>9.58880228249979</v>
       </c>
       <c r="F21">
-        <v>59.08740331955881</v>
+        <v>49.12314484762597</v>
       </c>
       <c r="G21">
-        <v>2.072438846892839</v>
+        <v>76.96184483708798</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.207245503312388</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.534433040449967</v>
       </c>
       <c r="J21">
-        <v>7.578263300368011</v>
+        <v>19.84813535660178</v>
       </c>
       <c r="K21">
-        <v>36.42397805327806</v>
+        <v>36.74689691317271</v>
       </c>
       <c r="L21">
-        <v>4.856025369954761</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.73867198918167</v>
+        <v>5.978411737930815</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>43.4384211415891</v>
+      </c>
+      <c r="P21">
+        <v>21.84532928095777</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.82372534479537</v>
+        <v>9.857589736756195</v>
       </c>
       <c r="D22">
-        <v>1.786990283043669</v>
+        <v>5.057814168802111</v>
       </c>
       <c r="E22">
-        <v>8.853917643919806</v>
+        <v>9.768637917046421</v>
       </c>
       <c r="F22">
-        <v>60.74693014704664</v>
+        <v>50.89250777587772</v>
       </c>
       <c r="G22">
-        <v>2.058041903873227</v>
+        <v>79.84263084136482</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.508498245820601</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.817920599792201</v>
       </c>
       <c r="J22">
-        <v>7.624802254228181</v>
+        <v>20.46997085752504</v>
       </c>
       <c r="K22">
-        <v>37.81634347714641</v>
+        <v>37.97552796697323</v>
       </c>
       <c r="L22">
-        <v>4.836970841178741</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.47865683340851</v>
+        <v>6.030166195622558</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>44.96825309719677</v>
+      </c>
+      <c r="P22">
+        <v>22.3962522987336</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.63853269375739</v>
+        <v>9.716911874212338</v>
       </c>
       <c r="D23">
-        <v>1.757014332099782</v>
+        <v>5.020399643853158</v>
       </c>
       <c r="E23">
-        <v>8.77725543796897</v>
+        <v>9.674021615906264</v>
       </c>
       <c r="F23">
-        <v>59.85526078936783</v>
+        <v>50.00315666583543</v>
       </c>
       <c r="G23">
-        <v>2.065749425601822</v>
+        <v>78.4018091758945</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.35121602046883</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.668552732430106</v>
       </c>
       <c r="J23">
-        <v>7.599258924514425</v>
+        <v>20.16011118362221</v>
       </c>
       <c r="K23">
-        <v>37.05323141549164</v>
+        <v>37.37217097208821</v>
       </c>
       <c r="L23">
-        <v>4.847043176821163</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.61731059012462</v>
+        <v>6.004656002930062</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>44.18382714565146</v>
+      </c>
+      <c r="P23">
+        <v>22.09804188896505</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.94632375983532</v>
+        <v>9.183964173035591</v>
       </c>
       <c r="D24">
-        <v>1.647954390509513</v>
+        <v>4.861061764209242</v>
       </c>
       <c r="E24">
-        <v>8.499669281775533</v>
+        <v>9.3108646500538</v>
       </c>
       <c r="F24">
-        <v>56.60104765648872</v>
+        <v>46.45362150341555</v>
       </c>
       <c r="G24">
-        <v>2.094515469430209</v>
+        <v>72.62488073705828</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.744791131590534</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.094626883514954</v>
       </c>
       <c r="J24">
-        <v>7.517199039554932</v>
+        <v>18.92653242178737</v>
       </c>
       <c r="K24">
-        <v>34.32061024226303</v>
+        <v>34.9438577918872</v>
       </c>
       <c r="L24">
-        <v>4.887359285116406</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.14522080489358</v>
+        <v>5.903467467013906</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>41.03625409540715</v>
+      </c>
+      <c r="P24">
+        <v>20.94446194941459</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.21457679765461</v>
+        <v>8.601273747180281</v>
       </c>
       <c r="D25">
-        <v>1.636999351351651</v>
+        <v>4.681729085170532</v>
       </c>
       <c r="E25">
-        <v>8.224200982465547</v>
+        <v>8.910498739069721</v>
       </c>
       <c r="F25">
-        <v>53.31251876963549</v>
+        <v>42.40835600871918</v>
       </c>
       <c r="G25">
-        <v>2.125150121635615</v>
+        <v>66.00576189914307</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.076011916473255</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.462093376585812</v>
       </c>
       <c r="J25">
-        <v>7.455578362794101</v>
+        <v>17.5402652124385</v>
       </c>
       <c r="K25">
-        <v>31.34265805562618</v>
+        <v>32.18896940873249</v>
       </c>
       <c r="L25">
-        <v>4.935634158056708</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.72170117594554</v>
+        <v>5.790924854573406</v>
       </c>
       <c r="O25">
+        <v>37.34944482318383</v>
+      </c>
+      <c r="P25">
+        <v>19.63317800682105</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_55/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.15864061097527</v>
+        <v>8.296774081663107</v>
       </c>
       <c r="D2">
-        <v>4.565742254600882</v>
+        <v>4.053606818826509</v>
       </c>
       <c r="E2">
-        <v>8.609009751806212</v>
+        <v>8.426013192566861</v>
       </c>
       <c r="F2">
-        <v>39.38991881114428</v>
+        <v>35.46357905342229</v>
       </c>
       <c r="G2">
-        <v>61.05322602556755</v>
+        <v>53.67041734012459</v>
       </c>
       <c r="H2">
-        <v>2.576122695130787</v>
+        <v>2.372899038976992</v>
       </c>
       <c r="I2">
-        <v>3.985618059005505</v>
+        <v>3.775997460066532</v>
       </c>
       <c r="J2">
-        <v>16.53213051975311</v>
+        <v>15.46935122322427</v>
       </c>
       <c r="K2">
-        <v>30.18677228301945</v>
+        <v>26.39151860719682</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>21.72813644738634</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.04400781981342</v>
       </c>
       <c r="N2">
-        <v>5.709640589874666</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>34.45758530577984</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>18.59978490657429</v>
+        <v>5.641123581065321</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>32.38353401525099</v>
+      </c>
+      <c r="R2">
+        <v>19.02453148374017</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.85236294439289</v>
+        <v>7.903494570095539</v>
       </c>
       <c r="D3">
-        <v>4.470491542723056</v>
+        <v>4.004802436759144</v>
       </c>
       <c r="E3">
-        <v>8.395672310388376</v>
+        <v>8.245388722734743</v>
       </c>
       <c r="F3">
-        <v>37.15296108967166</v>
+        <v>33.60472539032028</v>
       </c>
       <c r="G3">
-        <v>57.34935692269934</v>
+        <v>50.60305763842613</v>
       </c>
       <c r="H3">
-        <v>2.221628611708895</v>
+        <v>2.075259764837889</v>
       </c>
       <c r="I3">
-        <v>3.649313392082098</v>
+        <v>3.505391805732594</v>
       </c>
       <c r="J3">
-        <v>15.7905925551248</v>
+        <v>14.86829305748314</v>
       </c>
       <c r="K3">
-        <v>28.68543430256231</v>
+        <v>25.25703514824772</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>21.14299708484639</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.86788244059865</v>
       </c>
       <c r="N3">
-        <v>5.648970459347972</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>32.29847624678525</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>17.87897146544132</v>
+        <v>5.623666991823677</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>30.412288710547</v>
+      </c>
+      <c r="R3">
+        <v>18.2511189869011</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.659927424739823</v>
+        <v>7.655985040899551</v>
       </c>
       <c r="D4">
-        <v>4.409671041548854</v>
+        <v>3.972706451306839</v>
       </c>
       <c r="E4">
-        <v>8.26076225840532</v>
+        <v>8.130932663689336</v>
       </c>
       <c r="F4">
-        <v>35.72302757746986</v>
+        <v>32.41541074431247</v>
       </c>
       <c r="G4">
-        <v>54.96928234476708</v>
+        <v>48.63272640117167</v>
       </c>
       <c r="H4">
-        <v>1.997955536874248</v>
+        <v>1.886902501634182</v>
       </c>
       <c r="I4">
-        <v>3.437098515025476</v>
+        <v>3.334257765902143</v>
       </c>
       <c r="J4">
-        <v>15.32217566820898</v>
+        <v>14.48600725309707</v>
       </c>
       <c r="K4">
-        <v>27.7290974660399</v>
+        <v>24.53375290566922</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>20.76260854515344</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.12785180420837</v>
       </c>
       <c r="N4">
-        <v>5.610263301972641</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>30.89326997771918</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>17.42372533953428</v>
+        <v>5.612284140443967</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>29.12767744219754</v>
+      </c>
+      <c r="R4">
+        <v>17.76196732292518</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.580666798443017</v>
+        <v>7.557110800993755</v>
       </c>
       <c r="D5">
-        <v>4.381880369389118</v>
+        <v>3.957428998223647</v>
       </c>
       <c r="E5">
-        <v>8.204391781350399</v>
+        <v>8.083206653934676</v>
       </c>
       <c r="F5">
-        <v>35.10965486048245</v>
+        <v>31.90352514018355</v>
       </c>
       <c r="G5">
-        <v>53.9429773104651</v>
+        <v>47.78036944602015</v>
       </c>
       <c r="H5">
-        <v>1.904362905828451</v>
+        <v>1.807964502150297</v>
       </c>
       <c r="I5">
-        <v>3.348746483747635</v>
+        <v>3.263270064533121</v>
       </c>
       <c r="J5">
-        <v>15.12160936476661</v>
+        <v>14.32109270460143</v>
       </c>
       <c r="K5">
-        <v>27.31502235383937</v>
+        <v>24.21806568300735</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>20.59121900488401</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15.81153176353177</v>
       </c>
       <c r="N5">
-        <v>5.593557171907728</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>30.29171283400801</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>17.23698596287793</v>
+        <v>5.607212196080751</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>28.57724504136234</v>
+      </c>
+      <c r="R5">
+        <v>17.56092131416912</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.567857438581549</v>
+        <v>7.544921547746471</v>
       </c>
       <c r="D6">
-        <v>4.374266311941248</v>
+        <v>3.95282926746973</v>
       </c>
       <c r="E6">
-        <v>8.1945197497778</v>
+        <v>8.075016878790464</v>
       </c>
       <c r="F6">
-        <v>34.98636262201105</v>
+        <v>31.79884102520908</v>
       </c>
       <c r="G6">
-        <v>53.73406120026812</v>
+        <v>47.60333426984054</v>
       </c>
       <c r="H6">
-        <v>1.887653307548776</v>
+        <v>1.793869957211337</v>
       </c>
       <c r="I6">
-        <v>3.333680330027625</v>
+        <v>3.251650613024666</v>
       </c>
       <c r="J6">
-        <v>15.08008375808642</v>
+        <v>14.28624703257077</v>
       </c>
       <c r="K6">
-        <v>27.22619830880335</v>
+        <v>24.14755621901711</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>20.54891824616415</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>15.74538245498643</v>
       </c>
       <c r="N6">
-        <v>5.590082261066324</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>30.17964015929071</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>17.20790827150329</v>
+        <v>5.606047317762979</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>28.47454096872591</v>
+      </c>
+      <c r="R6">
+        <v>17.52931351481899</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.659983239120793</v>
+        <v>7.661457371205885</v>
       </c>
       <c r="D7">
-        <v>4.401243503969949</v>
+        <v>3.963467262497473</v>
       </c>
       <c r="E7">
-        <v>8.258800714003987</v>
+        <v>8.127988154317078</v>
       </c>
       <c r="F7">
-        <v>35.65952146710266</v>
+        <v>32.32606367644165</v>
       </c>
       <c r="G7">
-        <v>54.85670241179103</v>
+        <v>48.6126662750702</v>
       </c>
       <c r="H7">
-        <v>1.993787552109695</v>
+        <v>1.882390728658704</v>
       </c>
       <c r="I7">
-        <v>3.434731317914745</v>
+        <v>3.332535273870911</v>
       </c>
       <c r="J7">
-        <v>15.2978217200305</v>
+        <v>14.3903829307064</v>
       </c>
       <c r="K7">
-        <v>27.67091542022805</v>
+        <v>24.46100258270683</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>20.70828821193925</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.07145107093583</v>
       </c>
       <c r="N7">
-        <v>5.608186999248028</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>30.85590485001327</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>17.42690600614665</v>
+        <v>5.611136942679166</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>29.08031449411928</v>
+      </c>
+      <c r="R7">
+        <v>17.76709358874301</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.055322030852508</v>
+        <v>8.161929154976741</v>
       </c>
       <c r="D8">
-        <v>4.522942396129884</v>
+        <v>4.018775086762743</v>
       </c>
       <c r="E8">
-        <v>8.5347241056066</v>
+        <v>8.358265416022446</v>
       </c>
       <c r="F8">
-        <v>38.56181977060651</v>
+        <v>34.67132400724272</v>
       </c>
       <c r="G8">
-        <v>59.67611636836773</v>
+        <v>52.77451988239632</v>
       </c>
       <c r="H8">
-        <v>2.451323920128151</v>
+        <v>2.265059126753091</v>
       </c>
       <c r="I8">
-        <v>3.86863400882898</v>
+        <v>3.680119837694308</v>
       </c>
       <c r="J8">
-        <v>16.25194022089107</v>
+        <v>15.00643429428209</v>
       </c>
       <c r="K8">
-        <v>29.61044767127545</v>
+        <v>25.88054517481237</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>21.43671283882628</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.54624878261736</v>
       </c>
       <c r="N8">
-        <v>5.686581699981891</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>33.69358311633627</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>18.36130473396849</v>
+        <v>5.633473224220177</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>31.64650820479274</v>
+      </c>
+      <c r="R8">
+        <v>18.77577977672172</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.797073262591855</v>
+        <v>9.09413604970436</v>
       </c>
       <c r="D9">
-        <v>4.756795774966744</v>
+        <v>4.132484583941506</v>
       </c>
       <c r="E9">
-        <v>9.048692676751594</v>
+        <v>8.789832673161804</v>
       </c>
       <c r="F9">
-        <v>43.88417123671415</v>
+        <v>39.07765159313469</v>
       </c>
       <c r="G9">
-        <v>68.43641610824933</v>
+        <v>60.07593581531459</v>
       </c>
       <c r="H9">
-        <v>3.308547876491705</v>
+        <v>2.980555730877109</v>
       </c>
       <c r="I9">
-        <v>4.68013122086338</v>
+        <v>4.32859001177714</v>
       </c>
       <c r="J9">
-        <v>18.04870795895698</v>
+        <v>16.4090165263917</v>
       </c>
       <c r="K9">
-        <v>33.21677292577686</v>
+        <v>28.5998245111618</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>22.8153892558669</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.39232146061964</v>
       </c>
       <c r="N9">
-        <v>5.832584180929602</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>38.67419921021739</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>20.07411596074727</v>
+        <v>5.674706785669261</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>36.17916349890582</v>
+      </c>
+      <c r="R9">
+        <v>20.61208904832226</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.327364489906703</v>
+        <v>9.756835810764597</v>
       </c>
       <c r="D10">
-        <v>4.879510274682501</v>
+        <v>4.164809688676187</v>
       </c>
       <c r="E10">
-        <v>9.441074295425993</v>
+        <v>9.126270257164395</v>
       </c>
       <c r="F10">
-        <v>47.28295071147853</v>
+        <v>41.7311555978584</v>
       </c>
       <c r="G10">
-        <v>73.95711077189766</v>
+        <v>65.04176971423176</v>
       </c>
       <c r="H10">
-        <v>3.892694172314347</v>
+        <v>3.459595993101485</v>
       </c>
       <c r="I10">
-        <v>5.240383516931499</v>
+        <v>4.769659174164896</v>
       </c>
       <c r="J10">
-        <v>19.2038004546122</v>
+        <v>16.93161087169972</v>
       </c>
       <c r="K10">
-        <v>35.47849852510544</v>
+        <v>30.18455272140361</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>23.52917270377084</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>22.14969275269595</v>
       </c>
       <c r="N10">
-        <v>5.953159964747259</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>41.76664830873247</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>21.2949822628511</v>
+        <v>5.705861871109452</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>38.92654650989024</v>
+      </c>
+      <c r="R10">
+        <v>21.92359020332925</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.597640275690999</v>
+        <v>10.2421232834598</v>
       </c>
       <c r="D11">
-        <v>4.638195699924067</v>
+        <v>3.987267939740275</v>
       </c>
       <c r="E11">
-        <v>10.02998099087694</v>
+        <v>9.774183956859778</v>
       </c>
       <c r="F11">
-        <v>46.98423241695522</v>
+        <v>41.13343751978605</v>
       </c>
       <c r="G11">
-        <v>73.22375796354143</v>
+        <v>65.18030394542343</v>
       </c>
       <c r="H11">
-        <v>4.463346416860634</v>
+        <v>4.060651070008703</v>
       </c>
       <c r="I11">
-        <v>5.382086240406284</v>
+        <v>4.879817860417895</v>
       </c>
       <c r="J11">
-        <v>18.97782261462924</v>
+        <v>15.93971417360036</v>
       </c>
       <c r="K11">
-        <v>34.82759590985599</v>
+        <v>29.35071976485211</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>22.71596823073133</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21.74348226137981</v>
       </c>
       <c r="N11">
-        <v>6.286923304792265</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>41.58308944285253</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>22.16379961000482</v>
+        <v>5.875220999209603</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>38.64080819639795</v>
+      </c>
+      <c r="R11">
+        <v>22.82359575300197</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.752626351029562</v>
+        <v>10.52905026278886</v>
       </c>
       <c r="D12">
-        <v>4.429029608728709</v>
+        <v>3.869856037870374</v>
       </c>
       <c r="E12">
-        <v>10.63790260098001</v>
+        <v>10.43181370721464</v>
       </c>
       <c r="F12">
-        <v>46.081507621542</v>
+        <v>40.21673704816006</v>
       </c>
       <c r="G12">
-        <v>71.56054668460682</v>
+        <v>64.13732116775623</v>
       </c>
       <c r="H12">
-        <v>5.356325550385084</v>
+        <v>5.028601905138331</v>
       </c>
       <c r="I12">
-        <v>5.393598960607858</v>
+        <v>4.889443278586193</v>
       </c>
       <c r="J12">
-        <v>18.56602938662155</v>
+        <v>15.23393332458263</v>
       </c>
       <c r="K12">
-        <v>33.85876690534855</v>
+        <v>28.4248481920826</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>21.96545955977171</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.11710423981402</v>
       </c>
       <c r="N12">
-        <v>6.683898805767086</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>40.81630638645235</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>22.64293892497055</v>
+        <v>6.172566174888004</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>37.8917823685404</v>
+      </c>
+      <c r="R12">
+        <v>23.30305846570222</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.829435080194804</v>
+        <v>10.71604537752612</v>
       </c>
       <c r="D13">
-        <v>4.221441803215613</v>
+        <v>3.783678950789267</v>
       </c>
       <c r="E13">
-        <v>11.27140602906996</v>
+        <v>11.12616254735019</v>
       </c>
       <c r="F13">
-        <v>44.56045372950959</v>
+        <v>38.96975184567138</v>
       </c>
       <c r="G13">
-        <v>68.90427385635675</v>
+        <v>61.80509535001782</v>
       </c>
       <c r="H13">
-        <v>6.390782571460593</v>
+        <v>6.140315910773283</v>
       </c>
       <c r="I13">
-        <v>5.302981081575648</v>
+        <v>4.823545666192785</v>
       </c>
       <c r="J13">
-        <v>17.94680374697569</v>
+        <v>14.81861532765283</v>
       </c>
       <c r="K13">
-        <v>32.49294200942326</v>
+        <v>27.33037929074069</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>21.18494483435301</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.25115927053586</v>
       </c>
       <c r="N13">
-        <v>7.127659542828178</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>39.4980895107788</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>22.86766723488677</v>
+        <v>6.565133475991523</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>36.71207271503673</v>
+      </c>
+      <c r="R13">
+        <v>23.49870210162761</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.85570029142918</v>
+        <v>10.81185614849298</v>
       </c>
       <c r="D14">
-        <v>4.078123614060875</v>
+        <v>3.735237026933358</v>
       </c>
       <c r="E14">
-        <v>11.73850306909449</v>
+        <v>11.64277182833007</v>
       </c>
       <c r="F14">
-        <v>43.18323397461228</v>
+        <v>37.91597445689633</v>
       </c>
       <c r="G14">
-        <v>66.53651232825337</v>
+        <v>59.54066417963946</v>
       </c>
       <c r="H14">
-        <v>7.178027889968719</v>
+        <v>6.975900120152799</v>
       </c>
       <c r="I14">
-        <v>5.193850415263535</v>
+        <v>4.743792730329088</v>
       </c>
       <c r="J14">
-        <v>17.40766510563252</v>
+        <v>14.64125730444415</v>
       </c>
       <c r="K14">
-        <v>31.32912966129268</v>
+        <v>26.46202169864975</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>20.60594016027654</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.51570707530581</v>
       </c>
       <c r="N14">
-        <v>7.463355063127554</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>38.30022395518893</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>22.9134787001027</v>
+        <v>6.888728902633496</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>35.6664660866614</v>
+      </c>
+      <c r="R14">
+        <v>23.51076173693396</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.844260849563687</v>
+        <v>10.81800199404612</v>
       </c>
       <c r="D15">
-        <v>4.040654448333585</v>
+        <v>3.724888458337907</v>
       </c>
       <c r="E15">
-        <v>11.83579759081464</v>
+        <v>11.75724533871588</v>
       </c>
       <c r="F15">
-        <v>42.69496112756255</v>
+        <v>37.5654714174434</v>
       </c>
       <c r="G15">
-        <v>65.71008430513999</v>
+        <v>58.69000196411738</v>
       </c>
       <c r="H15">
-        <v>7.353423588942226</v>
+        <v>7.164542516289177</v>
       </c>
       <c r="I15">
-        <v>5.144259597575854</v>
+        <v>4.707627841732363</v>
       </c>
       <c r="J15">
-        <v>17.22457066126423</v>
+        <v>14.64093219425327</v>
       </c>
       <c r="K15">
-        <v>30.94242365746282</v>
+        <v>26.19483510578135</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>20.44333981268852</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.26993924759824</v>
       </c>
       <c r="N15">
-        <v>7.536261770055861</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>37.87822681541559</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>22.87171765154063</v>
+        <v>6.9658548922813</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>35.30648480819841</v>
+      </c>
+      <c r="R15">
+        <v>23.45476302037824</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.612191120377034</v>
+        <v>10.57072150062391</v>
       </c>
       <c r="D16">
-        <v>4.026779498996253</v>
+        <v>3.734874175787283</v>
       </c>
       <c r="E16">
-        <v>11.55904352383936</v>
+        <v>11.52586650206357</v>
       </c>
       <c r="F16">
-        <v>41.45033626664761</v>
+        <v>36.81945833680635</v>
       </c>
       <c r="G16">
-        <v>63.70350490066195</v>
+        <v>56.28887823130989</v>
       </c>
       <c r="H16">
-        <v>7.029492360121919</v>
+        <v>6.866352778796713</v>
       </c>
       <c r="I16">
-        <v>4.923839083727226</v>
+        <v>4.540931714243936</v>
       </c>
       <c r="J16">
-        <v>16.81830831224459</v>
+        <v>15.01951427263025</v>
       </c>
       <c r="K16">
-        <v>30.16197470972012</v>
+        <v>25.81438731437806</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>20.34505625750379</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.75265695673885</v>
       </c>
       <c r="N16">
-        <v>7.392555818344533</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>36.76487481656257</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>22.33288285288521</v>
+        <v>6.875339064402507</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>34.40415776735316</v>
+      </c>
+      <c r="R16">
+        <v>22.86434327743431</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.413165087287265</v>
+        <v>10.31249018476095</v>
       </c>
       <c r="D17">
-        <v>4.09002462322142</v>
+        <v>3.768930261691113</v>
       </c>
       <c r="E17">
-        <v>11.07565769032233</v>
+        <v>11.04309214223233</v>
       </c>
       <c r="F17">
-        <v>41.24840377403282</v>
+        <v>36.78653380324657</v>
       </c>
       <c r="G17">
-        <v>63.46117796436214</v>
+        <v>55.78619099568939</v>
       </c>
       <c r="H17">
-        <v>6.304854943002974</v>
+        <v>6.139384575494038</v>
       </c>
       <c r="I17">
-        <v>4.812065745097883</v>
+        <v>4.453829707859126</v>
       </c>
       <c r="J17">
-        <v>16.80102711508395</v>
+        <v>15.31701250754759</v>
       </c>
       <c r="K17">
-        <v>30.1997494768106</v>
+        <v>25.97251526750173</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>20.56993817303402</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.73829367076319</v>
       </c>
       <c r="N17">
-        <v>7.091996453137588</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>36.56211080394213</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>21.88797735800635</v>
+        <v>6.620226796395544</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>34.26636052137607</v>
+      </c>
+      <c r="R17">
+        <v>22.40115731244834</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.231995210115338</v>
+        <v>10.02330875303713</v>
       </c>
       <c r="D18">
-        <v>4.239739502286946</v>
+        <v>3.843393627708711</v>
       </c>
       <c r="E18">
-        <v>10.42264876041776</v>
+        <v>10.35271907122409</v>
       </c>
       <c r="F18">
-        <v>41.96885346360249</v>
+        <v>37.45948157923661</v>
       </c>
       <c r="G18">
-        <v>64.79707025799529</v>
+        <v>56.80397269531823</v>
       </c>
       <c r="H18">
-        <v>5.224266064326604</v>
+        <v>5.025124917397898</v>
       </c>
       <c r="I18">
-        <v>4.785273862116213</v>
+        <v>4.429098067876256</v>
       </c>
       <c r="J18">
-        <v>17.13256055142019</v>
+        <v>15.72527839492734</v>
       </c>
       <c r="K18">
-        <v>30.98653262889843</v>
+        <v>26.68448422525151</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>21.15387596581818</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.21119944823659</v>
       </c>
       <c r="N18">
-        <v>6.670760882403814</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>37.15512165820945</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>21.4751139442341</v>
+        <v>6.252797577115234</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>34.82386598626094</v>
+      </c>
+      <c r="R18">
+        <v>21.99247619762719</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.121892140054722</v>
+        <v>9.778329179333841</v>
       </c>
       <c r="D19">
-        <v>4.447584847852968</v>
+        <v>3.952665545139615</v>
       </c>
       <c r="E19">
-        <v>9.801291360064223</v>
+        <v>9.660720958795006</v>
       </c>
       <c r="F19">
-        <v>43.27505382013499</v>
+        <v>38.57921005575587</v>
       </c>
       <c r="G19">
-        <v>67.1226106221051</v>
+        <v>58.74339440982046</v>
       </c>
       <c r="H19">
-        <v>4.162128883176297</v>
+        <v>3.891044619310584</v>
       </c>
       <c r="I19">
-        <v>4.833339572648994</v>
+        <v>4.463826334248528</v>
       </c>
       <c r="J19">
-        <v>17.67811483295358</v>
+        <v>16.21220904025588</v>
       </c>
       <c r="K19">
-        <v>32.21906462967528</v>
+        <v>27.71682510388278</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>21.93282204644341</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.98341561123283</v>
       </c>
       <c r="N19">
-        <v>6.256241931743112</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>38.28624147660982</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>21.13382410777092</v>
+        <v>5.912353881904348</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>35.8542982944469</v>
+      </c>
+      <c r="R19">
+        <v>21.67023189631016</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.192689912165729</v>
+        <v>9.633700658511717</v>
       </c>
       <c r="D20">
-        <v>4.823351108805748</v>
+        <v>4.152467387729529</v>
       </c>
       <c r="E20">
-        <v>9.336926003555511</v>
+        <v>9.045215502428617</v>
       </c>
       <c r="F20">
-        <v>46.25965850140205</v>
+        <v>41.00392235837788</v>
       </c>
       <c r="G20">
-        <v>72.27725195561447</v>
+        <v>63.29398382310508</v>
       </c>
       <c r="H20">
-        <v>3.730267848426069</v>
+        <v>3.329681092732998</v>
       </c>
       <c r="I20">
-        <v>5.089705808532075</v>
+        <v>4.658322749709032</v>
       </c>
       <c r="J20">
-        <v>18.84424783012969</v>
+        <v>16.96689376163203</v>
       </c>
       <c r="K20">
-        <v>34.75112401252661</v>
+        <v>29.70818808786802</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>23.29637992537595</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.64327445860043</v>
       </c>
       <c r="N20">
-        <v>5.916644306724446</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>40.89879590001828</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>20.99762043242861</v>
+        <v>5.695907033696837</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>38.18972309802797</v>
+      </c>
+      <c r="R20">
+        <v>21.59404632629909</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.596005073083051</v>
+        <v>10.01527361205733</v>
       </c>
       <c r="D21">
-        <v>4.971148043697561</v>
+        <v>4.149167541924133</v>
       </c>
       <c r="E21">
-        <v>9.58880228249979</v>
+        <v>9.207096491673498</v>
       </c>
       <c r="F21">
-        <v>49.12314484762597</v>
+        <v>42.79653057837011</v>
       </c>
       <c r="G21">
-        <v>76.96184483708798</v>
+        <v>68.66762566377679</v>
       </c>
       <c r="H21">
-        <v>4.207245503312388</v>
+        <v>3.703585833056255</v>
       </c>
       <c r="I21">
-        <v>5.534433040449967</v>
+        <v>4.990157639624918</v>
       </c>
       <c r="J21">
-        <v>19.84813535660178</v>
+        <v>16.31768509152265</v>
       </c>
       <c r="K21">
-        <v>36.74689691317271</v>
+        <v>30.82718467600539</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>23.7775756367301</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>22.90976505043016</v>
       </c>
       <c r="N21">
-        <v>5.978411737930815</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>43.4384211415891</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>21.84532928095777</v>
+        <v>5.711544962650254</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>40.26432135483335</v>
+      </c>
+      <c r="R21">
+        <v>22.55345170112173</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.857589736756195</v>
+        <v>10.26134522638174</v>
       </c>
       <c r="D22">
-        <v>5.057814168802111</v>
+        <v>4.137013533059506</v>
       </c>
       <c r="E22">
-        <v>9.768637917046421</v>
+        <v>9.334632912807789</v>
       </c>
       <c r="F22">
-        <v>50.89250777587772</v>
+        <v>43.86598110662246</v>
       </c>
       <c r="G22">
-        <v>79.84263084136482</v>
+        <v>72.07382028477544</v>
       </c>
       <c r="H22">
-        <v>4.508498245820601</v>
+        <v>3.937799103176709</v>
       </c>
       <c r="I22">
-        <v>5.817920599792201</v>
+        <v>5.199166853848102</v>
       </c>
       <c r="J22">
-        <v>20.46997085752504</v>
+        <v>15.80810338368754</v>
       </c>
       <c r="K22">
-        <v>37.97552796697323</v>
+        <v>31.48660151350397</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>24.04190077251927</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.67724034588797</v>
       </c>
       <c r="N22">
-        <v>6.030166195622558</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>44.96825309719677</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>22.3962522987336</v>
+        <v>5.725016293831652</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>41.49379455764509</v>
+      </c>
+      <c r="R22">
+        <v>23.17637992508178</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.716911874212338</v>
+        <v>10.12818335618672</v>
       </c>
       <c r="D23">
-        <v>5.020399643853158</v>
+        <v>4.156968332142579</v>
       </c>
       <c r="E23">
-        <v>9.674021615906264</v>
+        <v>9.270136150935194</v>
       </c>
       <c r="F23">
-        <v>50.00315666583543</v>
+        <v>43.40771944063133</v>
       </c>
       <c r="G23">
-        <v>78.4018091758945</v>
+        <v>70.1838441089471</v>
       </c>
       <c r="H23">
-        <v>4.35121602046883</v>
+        <v>3.817690267613663</v>
       </c>
       <c r="I23">
-        <v>5.668552732430106</v>
+        <v>5.089587293621782</v>
       </c>
       <c r="J23">
-        <v>20.16011118362221</v>
+        <v>16.2561372695048</v>
       </c>
       <c r="K23">
-        <v>37.37217097208821</v>
+        <v>31.22499282692509</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>23.96682310409079</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>23.33762900249741</v>
       </c>
       <c r="N23">
-        <v>6.004656002930062</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>44.18382714565146</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>22.09804188896505</v>
+        <v>5.718706972239743</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>40.89160476120276</v>
+      </c>
+      <c r="R23">
+        <v>22.8348749897958</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.183964173035591</v>
+        <v>9.588415540250475</v>
       </c>
       <c r="D24">
-        <v>4.861061764209242</v>
+        <v>4.176397816532053</v>
       </c>
       <c r="E24">
-        <v>9.3108646500538</v>
+        <v>9.00841917785737</v>
       </c>
       <c r="F24">
-        <v>46.45362150341555</v>
+        <v>41.17907979091743</v>
       </c>
       <c r="G24">
-        <v>72.62488073705828</v>
+        <v>63.586868745008</v>
       </c>
       <c r="H24">
-        <v>3.744791131590534</v>
+        <v>3.341814833648235</v>
       </c>
       <c r="I24">
-        <v>5.094626883514954</v>
+        <v>4.659330744623068</v>
       </c>
       <c r="J24">
-        <v>18.92653242178737</v>
+        <v>17.05034288991309</v>
       </c>
       <c r="K24">
-        <v>34.9438577918872</v>
+        <v>29.87896712181052</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>23.42801881501602</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.76842142809926</v>
       </c>
       <c r="N24">
-        <v>5.903467467013906</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>41.03625409540715</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>20.94446194941459</v>
+        <v>5.693861322538517</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>38.31645662942413</v>
+      </c>
+      <c r="R24">
+        <v>21.54270032713936</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.601273747180281</v>
+        <v>8.872918983652047</v>
       </c>
       <c r="D25">
-        <v>4.681729085170532</v>
+        <v>4.099166607593409</v>
       </c>
       <c r="E25">
-        <v>8.910498739069721</v>
+        <v>8.677371159158721</v>
       </c>
       <c r="F25">
-        <v>42.40835600871918</v>
+        <v>37.88840220906696</v>
       </c>
       <c r="G25">
-        <v>66.00576189914307</v>
+        <v>57.93564976368345</v>
       </c>
       <c r="H25">
-        <v>3.076011916473255</v>
+        <v>2.788499030155761</v>
       </c>
       <c r="I25">
-        <v>4.462093376585812</v>
+        <v>4.158258684655614</v>
       </c>
       <c r="J25">
-        <v>17.5402652124385</v>
+        <v>16.1047370327464</v>
       </c>
       <c r="K25">
-        <v>32.18896940873249</v>
+        <v>27.83911667260559</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>22.42322743025948</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.60469383122888</v>
       </c>
       <c r="N25">
-        <v>5.790924854573406</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>37.34944482318383</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>19.63317800682105</v>
+        <v>5.662907432505433</v>
       </c>
       <c r="Q25">
+        <v>34.99026235819889</v>
+      </c>
+      <c r="R25">
+        <v>20.13537110319525</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
